--- a/jenter.xlsx
+++ b/jenter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/resultat-maler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30640" windowHeight="20460" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Dag1</t>
   </si>
@@ -272,6 +272,54 @@
   </si>
   <si>
     <t>K3 J15-16</t>
+  </si>
+  <si>
+    <t>Sara Agnethe Granvang Tronrud</t>
+  </si>
+  <si>
+    <t>Selma Byfuglien Ulsrud</t>
+  </si>
+  <si>
+    <t>Caren Moen Ringen</t>
+  </si>
+  <si>
+    <t>Jessica Birgit Silber</t>
+  </si>
+  <si>
+    <t>Lene Jøranli</t>
+  </si>
+  <si>
+    <t>Iselin Stangen Kjeldsrud</t>
+  </si>
+  <si>
+    <t>Vilde Marie Thon Christensen</t>
+  </si>
+  <si>
+    <t>Ane Robøle Fegri</t>
+  </si>
+  <si>
+    <t>Hedda Nyhagen</t>
+  </si>
+  <si>
+    <t>Maria Vestengen</t>
+  </si>
+  <si>
+    <t>Mia Emilie Berntsen</t>
+  </si>
+  <si>
+    <t>Thea Olsen</t>
+  </si>
+  <si>
+    <t>Janne Ballangrud Seierstad</t>
+  </si>
+  <si>
+    <t>Eivor Melbybråten</t>
+  </si>
+  <si>
+    <t>Ingrid Dragerengen</t>
+  </si>
+  <si>
+    <t>Andrine Fuglerud Flugstad</t>
   </si>
 </sst>
 </file>
@@ -874,12 +922,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
   </cols>
@@ -965,33 +1014,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -999,11 +1050,11 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -5185,13 +5236,13 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.5" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -5253,15 +5304,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Maria Vestengen</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -5277,15 +5328,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Mia Emilie Berntsen</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -5301,15 +5352,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Thea Olsen</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!B6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K3'!A6="", "",'K3'!C6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5325,15 +5376,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Janne Ballangrud Seierstad</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!B7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K3'!A7="", "",'K3'!C7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -5349,15 +5400,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Eivor Melbybråten</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!B8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K3'!A8="", "",'K3'!C8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -5373,15 +5424,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Ingrid Dragerengen</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!B9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K3'!A9="", "",'K3'!C9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -5397,15 +5448,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Andrine Fuglerud Flugstad</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!B10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!C10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -7644,13 +7695,13 @@
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -7712,15 +7763,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Maria Vestengen</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K3'!A4="", "",'K3'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -7736,15 +7787,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Mia Emilie Berntsen</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K3'!A5="", "",'K3'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -7760,15 +7811,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Thea Olsen</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K3'!A6="", "",'K3'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K3'!A6="", "",'K3'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -7784,15 +7835,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="25" t="str">
+        <v>Janne Ballangrud Seierstad</v>
+      </c>
+      <c r="B7" s="25">
         <f>IF('K3'!A7="", "",'K3'!E7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K3'!A7="", "",'K3'!F7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -7808,15 +7859,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="25" t="str">
+        <v>Eivor Melbybråten</v>
+      </c>
+      <c r="B8" s="25">
         <f>IF('K3'!A8="", "",'K3'!E8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K3'!A8="", "",'K3'!F8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -7832,15 +7883,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>Ingrid Dragerengen</v>
+      </c>
+      <c r="B9" s="25">
         <f>IF('K3'!A9="", "",'K3'!E9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K3'!A9="", "",'K3'!F9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -7856,15 +7907,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="25" t="str">
+        <v>Andrine Fuglerud Flugstad</v>
+      </c>
+      <c r="B10" s="25">
         <f>IF('K3'!A10="", "",'K3'!E10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!F10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -10105,13 +10156,13 @@
   <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -10173,15 +10224,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Maria Vestengen</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -10197,15 +10248,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Mia Emilie Berntsen</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -10221,15 +10272,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Thea Olsen</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K3'!A6="", "",'K3'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -10245,15 +10296,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Janne Ballangrud Seierstad</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!H7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K3'!A7="", "",'K3'!I7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -10269,15 +10320,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Eivor Melbybråten</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!H8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K3'!A8="", "",'K3'!I8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -10293,15 +10344,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Ingrid Dragerengen</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!H9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K3'!A9="", "",'K3'!I9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -10317,15 +10368,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Andrine Fuglerud Flugstad</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!H10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!I10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -12564,12 +12615,13 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="174" zoomScaleNormal="174" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="14" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="14"/>
     <col min="4" max="5" width="8.83203125" style="15"/>
@@ -12685,7 +12737,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v/>
+        <v>Janne Ballangrud Seierstad</v>
       </c>
       <c r="B4" s="19" t="str">
         <f>IF('K3'!B7="", "",'K3'!B7)</f>
@@ -12697,11 +12749,11 @@
       </c>
       <c r="D4" s="23" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(E4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="23" t="str">
         <f t="shared" ref="E4:E67" si="1">IF(A4="","",IFERROR(RANK(C4,C:C,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F4" s="19" t="str">
         <f>IF('K3'!E7="", "", 'K3'!E7)</f>
@@ -12713,11 +12765,11 @@
       </c>
       <c r="H4" s="23" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" ref="I4:I67" si="3">IF(A4="","",IFERROR(RANK(G4,G:G,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="19" t="str">
         <f>IF('K3'!H7="", "", 'K3'!H7)</f>
@@ -12729,11 +12781,11 @@
       </c>
       <c r="L4" s="23" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(M4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="23" t="str">
         <f t="shared" ref="M4:M67" si="5">IF(A4="","",IFERROR(RANK(K4,K:K,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N4" s="27" t="str">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
@@ -12745,17 +12797,17 @@
       </c>
       <c r="P4" s="22" t="str">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q4" s="23" t="str">
         <f t="shared" ref="Q4:Q67" si="7">IF(A4="","", IFERROR(RANK(P4,P:P,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v/>
+        <v>Thea Olsen</v>
       </c>
       <c r="B5" s="19" t="str">
         <f>IF('K3'!B6="", "",'K3'!B6)</f>
@@ -12767,11 +12819,11 @@
       </c>
       <c r="D5" s="23" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(E5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F5" s="19" t="str">
         <f>IF('K3'!E6="", "", 'K3'!E6)</f>
@@ -12783,11 +12835,11 @@
       </c>
       <c r="H5" s="23" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="19" t="str">
         <f>IF('K3'!H6="", "", 'K3'!H6)</f>
@@ -12799,11 +12851,11 @@
       </c>
       <c r="L5" s="23" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(M5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N5" s="27" t="str">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
@@ -12815,17 +12867,17 @@
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q5" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
+        <v>Lene Jøranli</v>
       </c>
       <c r="B6" s="19" t="str">
         <f>IF('K2'!B7="", "",'K2'!B7)</f>
@@ -12837,11 +12889,11 @@
       </c>
       <c r="D6" s="23" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(E6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E6" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F6" s="19" t="str">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
@@ -12853,11 +12905,11 @@
       </c>
       <c r="H6" s="23" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="19" t="str">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
@@ -12869,11 +12921,11 @@
       </c>
       <c r="L6" s="23" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(M6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N6" s="27" t="str">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
@@ -12885,17 +12937,17 @@
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q6" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
+        <v>Sara Agnethe Granvang Tronrud</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -12907,11 +12959,11 @@
       </c>
       <c r="D7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12923,11 +12975,11 @@
       </c>
       <c r="H7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -12939,11 +12991,11 @@
       </c>
       <c r="L7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
@@ -12955,11 +13007,11 @@
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q7" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -19685,7 +19737,7 @@
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v/>
+        <v>Maria Vestengen</v>
       </c>
       <c r="B104" s="19" t="str">
         <f>IF('K3'!B4="", "",'K3'!B4)</f>
@@ -19697,11 +19749,11 @@
       </c>
       <c r="D104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(E104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E104" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F104" s="19" t="str">
         <f>IF('K3'!E4="", "", 'K3'!E4)</f>
@@ -19713,11 +19765,11 @@
       </c>
       <c r="H104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(I104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I104" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J104" s="19" t="str">
         <f>IF('K3'!H4="", "", 'K3'!H4)</f>
@@ -19729,11 +19781,11 @@
       </c>
       <c r="L104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(M104,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M104" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N104" s="27" t="str">
         <f>IF('K3'!K4="", "", 'K3'!K4)</f>
@@ -19745,17 +19797,17 @@
       </c>
       <c r="P104" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q104" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
+        <v>Selma Byfuglien Ulsrud</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19767,11 +19819,11 @@
       </c>
       <c r="D105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E105" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19783,11 +19835,11 @@
       </c>
       <c r="H105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I105" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19799,11 +19851,11 @@
       </c>
       <c r="L105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M105" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N105" s="27" t="str">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
@@ -19815,11 +19867,11 @@
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q105" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -19895,7 +19947,7 @@
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
+        <v>Jessica Birgit Silber</v>
       </c>
       <c r="B107" s="19" t="str">
         <f>IF('K2'!B6="", "",'K2'!B6)</f>
@@ -19907,11 +19959,11 @@
       </c>
       <c r="D107" s="23" t="str">
         <f>IF(A107="","",IFERROR(VLOOKUP(E107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E107" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F107" s="19" t="str">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
@@ -19923,11 +19975,11 @@
       </c>
       <c r="H107" s="23" t="str">
         <f>IF(A107="","",IFERROR(VLOOKUP(I107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I107" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J107" s="19" t="str">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
@@ -19939,11 +19991,11 @@
       </c>
       <c r="L107" s="23" t="str">
         <f>IF(A107="","",IFERROR(VLOOKUP(M107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M107" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N107" s="27" t="str">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
@@ -19955,17 +20007,17 @@
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q107" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v/>
+        <v>Iselin Stangen Kjeldsrud</v>
       </c>
       <c r="B108" s="19" t="str">
         <f>IF('K2'!B8="", "",'K2'!B8)</f>
@@ -19977,11 +20029,11 @@
       </c>
       <c r="D108" s="23" t="str">
         <f>IF(A108="","",IFERROR(VLOOKUP(E108,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E108" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F108" s="19" t="str">
         <f>IF('K2'!E8="", "", 'K2'!E8)</f>
@@ -19993,11 +20045,11 @@
       </c>
       <c r="H108" s="23" t="str">
         <f>IF(A108="","",IFERROR(VLOOKUP(I108,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I108" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J108" s="19" t="str">
         <f>IF('K2'!H8="", "", 'K2'!H8)</f>
@@ -20009,11 +20061,11 @@
       </c>
       <c r="L108" s="23" t="str">
         <f>IF(A108="","",IFERROR(VLOOKUP(M108,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M108" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N108" s="27" t="str">
         <f>IF('K2'!K8="", "", 'K2'!K8)</f>
@@ -20025,17 +20077,17 @@
       </c>
       <c r="P108" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q108" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v/>
+        <v>Vilde Marie Thon Christensen</v>
       </c>
       <c r="B109" s="19" t="str">
         <f>IF('K2'!B9="", "",'K2'!B9)</f>
@@ -20047,11 +20099,11 @@
       </c>
       <c r="D109" s="23" t="str">
         <f>IF(A109="","",IFERROR(VLOOKUP(E109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E109" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F109" s="19" t="str">
         <f>IF('K2'!E9="", "", 'K2'!E9)</f>
@@ -20063,11 +20115,11 @@
       </c>
       <c r="H109" s="23" t="str">
         <f>IF(A109="","",IFERROR(VLOOKUP(I109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I109" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J109" s="19" t="str">
         <f>IF('K2'!H9="", "", 'K2'!H9)</f>
@@ -20079,11 +20131,11 @@
       </c>
       <c r="L109" s="23" t="str">
         <f>IF(A109="","",IFERROR(VLOOKUP(M109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M109" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N109" s="27" t="str">
         <f>IF('K2'!K9="", "", 'K2'!K9)</f>
@@ -20095,17 +20147,17 @@
       </c>
       <c r="P109" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q109" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v/>
+        <v>Ane Robøle Fegri</v>
       </c>
       <c r="B110" s="19" t="str">
         <f>IF('K2'!B10="", "",'K2'!B10)</f>
@@ -20117,11 +20169,11 @@
       </c>
       <c r="D110" s="23" t="str">
         <f>IF(A110="","",IFERROR(VLOOKUP(E110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E110" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F110" s="19" t="str">
         <f>IF('K2'!E10="", "", 'K2'!E10)</f>
@@ -20133,11 +20185,11 @@
       </c>
       <c r="H110" s="23" t="str">
         <f>IF(A110="","",IFERROR(VLOOKUP(I110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I110" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J110" s="19" t="str">
         <f>IF('K2'!H10="", "", 'K2'!H10)</f>
@@ -20149,11 +20201,11 @@
       </c>
       <c r="L110" s="23" t="str">
         <f>IF(A110="","",IFERROR(VLOOKUP(M110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M110" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N110" s="27" t="str">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
@@ -20165,17 +20217,17 @@
       </c>
       <c r="P110" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q110" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
+        <v>Hedda Nyhagen</v>
       </c>
       <c r="B111" s="19" t="str">
         <f>IF('K2'!B11="", "",'K2'!B11)</f>
@@ -20187,11 +20239,11 @@
       </c>
       <c r="D111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(E111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E111" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F111" s="19" t="str">
         <f>IF('K2'!E11="", "", 'K2'!E11)</f>
@@ -20203,11 +20255,11 @@
       </c>
       <c r="H111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(I111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I111" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J111" s="19" t="str">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
@@ -20219,11 +20271,11 @@
       </c>
       <c r="L111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(M111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M111" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N111" s="27" t="str">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
@@ -20235,11 +20287,11 @@
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q111" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -26685,7 +26737,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
+        <v>Caren Moen Ringen</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26697,11 +26749,11 @@
       </c>
       <c r="D204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E204" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26713,11 +26765,11 @@
       </c>
       <c r="H204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I204" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J204" s="19" t="str">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
@@ -26729,11 +26781,11 @@
       </c>
       <c r="L204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M204" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N204" s="27" t="str">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
@@ -26745,11 +26797,11 @@
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q204" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
@@ -26895,7 +26947,7 @@
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v/>
+        <v>Mia Emilie Berntsen</v>
       </c>
       <c r="B207" s="19" t="str">
         <f>IF('K3'!B5="", "",'K3'!B5)</f>
@@ -26907,11 +26959,11 @@
       </c>
       <c r="D207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(E207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E207" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F207" s="19" t="str">
         <f>IF('K3'!E5="", "", 'K3'!E5)</f>
@@ -26923,11 +26975,11 @@
       </c>
       <c r="H207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(I207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I207" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J207" s="19" t="str">
         <f>IF('K3'!H5="", "", 'K3'!H5)</f>
@@ -26939,11 +26991,11 @@
       </c>
       <c r="L207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(M207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M207" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N207" s="27" t="str">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
@@ -26955,17 +27007,17 @@
       </c>
       <c r="P207" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q207" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v/>
+        <v>Eivor Melbybråten</v>
       </c>
       <c r="B208" s="19" t="str">
         <f>IF('K3'!B8="", "",'K3'!B8)</f>
@@ -26977,11 +27029,11 @@
       </c>
       <c r="D208" s="23" t="str">
         <f>IF(A208="","",IFERROR(VLOOKUP(E208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E208" s="23" t="str">
         <f t="shared" ref="E208:E268" si="37">IF(A208="","",IFERROR(RANK(C208,C:C,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F208" s="19" t="str">
         <f>IF('K3'!E8="", "", 'K3'!E8)</f>
@@ -26993,11 +27045,11 @@
       </c>
       <c r="H208" s="23" t="str">
         <f>IF(A208="","",IFERROR(VLOOKUP(I208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I208" s="23" t="str">
         <f t="shared" ref="I208:I260" si="39">IF(A208="","",IFERROR(RANK(G208,G:G,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J208" s="19" t="str">
         <f>IF('K3'!H8="", "", 'K3'!H8)</f>
@@ -27009,11 +27061,11 @@
       </c>
       <c r="L208" s="23" t="str">
         <f>IF(A208="","",IFERROR(VLOOKUP(M208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M208" s="23" t="str">
         <f t="shared" ref="M208:M260" si="41">IF(A208="","",IFERROR(RANK(K208,K:K,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N208" s="27" t="str">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
@@ -27025,17 +27077,17 @@
       </c>
       <c r="P208" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q208" s="23" t="str">
         <f t="shared" ref="Q208:Q260" si="43">IF(A208="","", IFERROR(RANK(P208,P:P,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v/>
+        <v>Ingrid Dragerengen</v>
       </c>
       <c r="B209" s="19" t="str">
         <f>IF('K3'!B9="", "",'K3'!B9)</f>
@@ -27047,11 +27099,11 @@
       </c>
       <c r="D209" s="23" t="str">
         <f>IF(A209="","",IFERROR(VLOOKUP(E209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E209" s="23" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F209" s="19" t="str">
         <f>IF('K3'!E9="", "", 'K3'!E9)</f>
@@ -27063,11 +27115,11 @@
       </c>
       <c r="H209" s="23" t="str">
         <f>IF(A209="","",IFERROR(VLOOKUP(I209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I209" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J209" s="19" t="str">
         <f>IF('K3'!H9="", "", 'K3'!H9)</f>
@@ -27079,11 +27131,11 @@
       </c>
       <c r="L209" s="23" t="str">
         <f>IF(A209="","",IFERROR(VLOOKUP(M209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M209" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N209" s="27" t="str">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
@@ -27095,17 +27147,17 @@
       </c>
       <c r="P209" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q209" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v/>
+        <v>Andrine Fuglerud Flugstad</v>
       </c>
       <c r="B210" s="19" t="str">
         <f>IF('K3'!B10="", "",'K3'!B10)</f>
@@ -27117,11 +27169,11 @@
       </c>
       <c r="D210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(E210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E210" s="23" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F210" s="19" t="str">
         <f>IF('K3'!E10="", "", 'K3'!E10)</f>
@@ -27133,11 +27185,11 @@
       </c>
       <c r="H210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(I210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I210" s="23" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J210" s="19" t="str">
         <f>IF('K3'!H10="", "", 'K3'!H10)</f>
@@ -27149,11 +27201,11 @@
       </c>
       <c r="L210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(M210,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M210" s="23" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N210" s="27" t="str">
         <f>IF('K3'!K10="", "", 'K3'!K10)</f>
@@ -27165,11 +27217,11 @@
       </c>
       <c r="P210" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q210" s="23" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
@@ -33711,13 +33763,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="37" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -33779,15 +33831,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
-        <v/>
+        <v>Thea Olsen</v>
       </c>
       <c r="B4" s="41" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -33803,15 +33855,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
-        <v/>
+        <v>Janne Ballangrud Seierstad</v>
       </c>
       <c r="B5" s="41" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!Q4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -33827,15 +33879,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v/>
+        <v>Sara Agnethe Granvang Tronrud</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -33851,15 +33903,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
-        <v/>
+        <v>Lene Jøranli</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -36160,29 +36212,29 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
-        <v/>
+        <v>Maria Vestengen</v>
       </c>
       <c r="B104" s="41" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!P104)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C104" s="37" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!Q104)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v/>
+        <v>Selma Byfuglien Ulsrud</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C105" s="37" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -36202,71 +36254,71 @@
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
-        <v/>
+        <v>Jessica Birgit Silber</v>
       </c>
       <c r="B107" s="41" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C107" s="37" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
-        <v/>
+        <v>Iselin Stangen Kjeldsrud</v>
       </c>
       <c r="B108" s="41" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!P108)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C108" s="37" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!Q108)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
-        <v/>
+        <v>Vilde Marie Thon Christensen</v>
       </c>
       <c r="B109" s="41" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!P109)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C109" s="37" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!Q109)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
-        <v/>
+        <v>Ane Robøle Fegri</v>
       </c>
       <c r="B110" s="41" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C110" s="37" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!Q110)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
-        <v/>
+        <v>Hedda Nyhagen</v>
       </c>
       <c r="B111" s="41" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!P111)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C111" s="37" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!Q111)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -37588,57 +37640,57 @@
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
-        <v/>
+        <v>Mia Emilie Berntsen</v>
       </c>
       <c r="B206" s="41" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C206" s="37" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!Q207)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
-        <v/>
+        <v>Eivor Melbybråten</v>
       </c>
       <c r="B207" s="41" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C207" s="37" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
-        <v/>
+        <v>Ingrid Dragerengen</v>
       </c>
       <c r="B208" s="41" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C208" s="37" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
-        <v/>
+        <v>Andrine Fuglerud Flugstad</v>
       </c>
       <c r="B209" s="41" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C209" s="37" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!Q210)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -38946,15 +38998,15 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v/>
+        <v>Caren Moen Ringen</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C303" s="37" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -38974,7 +39026,7 @@
   <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="154" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -39750,13 +39802,13 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="25.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
@@ -39843,33 +39895,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -39877,41 +39931,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -39919,41 +39975,43 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -39961,41 +40019,43 @@
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B7" s="25"/>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40003,41 +40063,43 @@
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="B8" s="25"/>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="12" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40045,41 +40107,43 @@
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="B9" s="25"/>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G9" s="11" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="12" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40087,41 +40151,43 @@
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="B10" s="25"/>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="12" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40129,41 +40195,43 @@
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="25"/>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G11" s="11" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="12" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40171,11 +40239,11 @@
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -44063,13 +44131,13 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="23" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
@@ -44156,33 +44224,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -44190,41 +44260,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -44232,41 +44304,43 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44274,41 +44348,43 @@
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="B7" s="25"/>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44316,41 +44392,43 @@
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="25"/>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="12" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44358,41 +44436,43 @@
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B9" s="25"/>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G9" s="11" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="12" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44400,41 +44480,43 @@
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="B10" s="25"/>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="12" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
@@ -44442,11 +44524,11 @@
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -48376,13 +48458,13 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.5" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -48444,15 +48526,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Sara Agnethe Granvang Tronrud</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -50835,13 +50917,13 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -50903,15 +50985,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Sara Agnethe Granvang Tronrud</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -53296,13 +53378,13 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -53364,15 +53446,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Sara Agnethe Granvang Tronrud</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -55755,13 +55837,13 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.5" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -55823,15 +55905,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Selma Byfuglien Ulsrud</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55847,15 +55929,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Caren Moen Ringen</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -55871,15 +55953,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Jessica Birgit Silber</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!B6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K2'!A6="", "",'K2'!C6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -55895,15 +55977,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Lene Jøranli</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!B7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K2'!A7="", "",'K2'!C7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -55919,15 +56001,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Iselin Stangen Kjeldsrud</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!B8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K2'!A8="", "",'K2'!C8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -55943,15 +56025,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Vilde Marie Thon Christensen</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!B9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K2'!A9="", "",'K2'!C9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -55967,15 +56049,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Ane Robøle Fegri</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!B10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K2'!A10="", "",'K2'!C10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -55991,15 +56073,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Hedda Nyhagen</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!B11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!C11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -58214,13 +58296,13 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -58282,15 +58364,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Selma Byfuglien Ulsrud</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58306,15 +58388,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Caren Moen Ringen</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -58330,15 +58412,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Jessica Birgit Silber</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K2'!A6="", "",'K2'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -58354,15 +58436,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="25" t="str">
+        <v>Lene Jøranli</v>
+      </c>
+      <c r="B7" s="25">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K2'!A7="", "",'K2'!F7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -58378,15 +58460,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="25" t="str">
+        <v>Iselin Stangen Kjeldsrud</v>
+      </c>
+      <c r="B8" s="25">
         <f>IF('K2'!A8="", "",'K2'!E8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K2'!A8="", "",'K2'!F8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -58402,15 +58484,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>Vilde Marie Thon Christensen</v>
+      </c>
+      <c r="B9" s="25">
         <f>IF('K2'!A9="", "",'K2'!E9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K2'!A9="", "",'K2'!F9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -58426,15 +58508,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="25" t="str">
+        <v>Ane Robøle Fegri</v>
+      </c>
+      <c r="B10" s="25">
         <f>IF('K2'!A10="", "",'K2'!E10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K2'!A10="", "",'K2'!F10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -58450,15 +58532,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="25" t="str">
+        <v>Hedda Nyhagen</v>
+      </c>
+      <c r="B11" s="25">
         <f>IF('K2'!A11="", "",'K2'!E11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!F11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -60675,13 +60757,13 @@
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -60743,15 +60825,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Selma Byfuglien Ulsrud</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60767,15 +60849,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Caren Moen Ringen</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -60791,15 +60873,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Jessica Birgit Silber</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -60815,15 +60897,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Lene Jøranli</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -60839,15 +60921,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Iselin Stangen Kjeldsrud</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!H8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K2'!A8="", "",'K2'!I8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -60863,15 +60945,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Vilde Marie Thon Christensen</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!H9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K2'!A9="", "",'K2'!I9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -60887,15 +60969,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Ane Robøle Fegri</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!H10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K2'!A10="", "",'K2'!I10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -60911,15 +60993,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Hedda Nyhagen</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!H11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!I11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>

--- a/jenter.xlsx
+++ b/jenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30640" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="33220" windowHeight="20460" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -274,52 +274,52 @@
     <t>K3 J15-16</t>
   </si>
   <si>
-    <t>Sara Agnethe Granvang Tronrud</t>
+    <t>Tronrud, Sara Agnethe Granvang</t>
   </si>
   <si>
-    <t>Selma Byfuglien Ulsrud</t>
+    <t>Christensen, Vilde Marie Thon</t>
   </si>
   <si>
-    <t>Caren Moen Ringen</t>
+    <t>Fegri, Ane Robøle</t>
   </si>
   <si>
-    <t>Jessica Birgit Silber</t>
+    <t>Jøranli, Lene</t>
   </si>
   <si>
-    <t>Lene Jøranli</t>
+    <t>Kjeldsberg, Iselin Stangstuen</t>
   </si>
   <si>
-    <t>Iselin Stangen Kjeldsrud</t>
+    <t>Nyhagen, Hedda</t>
   </si>
   <si>
-    <t>Vilde Marie Thon Christensen</t>
+    <t>Ringen, Carene Moen</t>
   </si>
   <si>
-    <t>Ane Robøle Fegri</t>
+    <t>Silber, Jessica Birgit</t>
   </si>
   <si>
-    <t>Hedda Nyhagen</t>
+    <t>Ulsrud, Selma Byfuglien</t>
   </si>
   <si>
-    <t>Maria Vestengen</t>
+    <t>Berntsen, Mia Emilie</t>
   </si>
   <si>
-    <t>Mia Emilie Berntsen</t>
+    <t>Dragerengen, Ingrid</t>
   </si>
   <si>
-    <t>Thea Olsen</t>
+    <t>Flugstad, Andrine Fuglerud</t>
   </si>
   <si>
-    <t>Janne Ballangrud Seierstad</t>
+    <t>Melbybråten, Eivor</t>
   </si>
   <si>
-    <t>Eivor Melbybråten</t>
+    <t>Olsen, Thea</t>
   </si>
   <si>
-    <t>Ingrid Dragerengen</t>
+    <t>Seierstad, Janne Ballangrud</t>
   </si>
   <si>
-    <t>Andrine Fuglerud Flugstad</t>
+    <t>Vestengen, Maria</t>
   </si>
 </sst>
 </file>
@@ -5304,7 +5304,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Maria Vestengen</v>
+        <v>Berntsen, Mia Emilie</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!B4)</f>
@@ -5328,7 +5328,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Mia Emilie Berntsen</v>
+        <v>Dragerengen, Ingrid</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!B5)</f>
@@ -5352,7 +5352,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Thea Olsen</v>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!B6)</f>
@@ -5376,7 +5376,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Janne Ballangrud Seierstad</v>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!B7)</f>
@@ -5400,7 +5400,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Eivor Melbybråten</v>
+        <v>Olsen, Thea</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!B8)</f>
@@ -5424,7 +5424,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Ingrid Dragerengen</v>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!B9)</f>
@@ -5448,7 +5448,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Andrine Fuglerud Flugstad</v>
+        <v>Vestengen, Maria</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!B10)</f>
@@ -7763,7 +7763,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Maria Vestengen</v>
+        <v>Berntsen, Mia Emilie</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K3'!A4="", "",'K3'!E4)</f>
@@ -7787,7 +7787,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Mia Emilie Berntsen</v>
+        <v>Dragerengen, Ingrid</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K3'!A5="", "",'K3'!E5)</f>
@@ -7811,7 +7811,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Thea Olsen</v>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K3'!A6="", "",'K3'!E6)</f>
@@ -7835,7 +7835,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Janne Ballangrud Seierstad</v>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K3'!A7="", "",'K3'!E7)</f>
@@ -7859,7 +7859,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Eivor Melbybråten</v>
+        <v>Olsen, Thea</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K3'!A8="", "",'K3'!E8)</f>
@@ -7883,7 +7883,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Ingrid Dragerengen</v>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B9" s="25">
         <f>IF('K3'!A9="", "",'K3'!E9)</f>
@@ -7907,7 +7907,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Andrine Fuglerud Flugstad</v>
+        <v>Vestengen, Maria</v>
       </c>
       <c r="B10" s="25">
         <f>IF('K3'!A10="", "",'K3'!E10)</f>
@@ -10224,7 +10224,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Maria Vestengen</v>
+        <v>Berntsen, Mia Emilie</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K3'!A4="", "",'K3'!H4)</f>
@@ -10248,7 +10248,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Mia Emilie Berntsen</v>
+        <v>Dragerengen, Ingrid</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!H5)</f>
@@ -10272,7 +10272,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Thea Olsen</v>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!H6)</f>
@@ -10296,7 +10296,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Janne Ballangrud Seierstad</v>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!H7)</f>
@@ -10320,7 +10320,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Eivor Melbybråten</v>
+        <v>Olsen, Thea</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!H8)</f>
@@ -10344,7 +10344,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Ingrid Dragerengen</v>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!H9)</f>
@@ -10368,7 +10368,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Andrine Fuglerud Flugstad</v>
+        <v>Vestengen, Maria</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K3'!A10="", "",'K3'!H10)</f>
@@ -12737,7 +12737,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Janne Ballangrud Seierstad</v>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B4" s="19" t="str">
         <f>IF('K3'!B7="", "",'K3'!B7)</f>
@@ -12807,7 +12807,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="str">
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Thea Olsen</v>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B5" s="19" t="str">
         <f>IF('K3'!B6="", "",'K3'!B6)</f>
@@ -12877,7 +12877,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Lene Jøranli</v>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B6" s="19" t="str">
         <f>IF('K2'!B7="", "",'K2'!B7)</f>
@@ -12947,7 +12947,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Sara Agnethe Granvang Tronrud</v>
+        <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -19737,7 +19737,7 @@
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
-        <v>Maria Vestengen</v>
+        <v>Berntsen, Mia Emilie</v>
       </c>
       <c r="B104" s="19" t="str">
         <f>IF('K3'!B4="", "",'K3'!B4)</f>
@@ -19807,7 +19807,7 @@
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Selma Byfuglien Ulsrud</v>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19947,7 +19947,7 @@
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Jessica Birgit Silber</v>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B107" s="19" t="str">
         <f>IF('K2'!B6="", "",'K2'!B6)</f>
@@ -20017,7 +20017,7 @@
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Iselin Stangen Kjeldsrud</v>
+        <v>Nyhagen, Hedda</v>
       </c>
       <c r="B108" s="19" t="str">
         <f>IF('K2'!B8="", "",'K2'!B8)</f>
@@ -20087,7 +20087,7 @@
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Vilde Marie Thon Christensen</v>
+        <v>Ringen, Carene Moen</v>
       </c>
       <c r="B109" s="19" t="str">
         <f>IF('K2'!B9="", "",'K2'!B9)</f>
@@ -20157,7 +20157,7 @@
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Ane Robøle Fegri</v>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B110" s="19" t="str">
         <f>IF('K2'!B10="", "",'K2'!B10)</f>
@@ -20227,7 +20227,7 @@
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v>Hedda Nyhagen</v>
+        <v>Ulsrud, Selma Byfuglien</v>
       </c>
       <c r="B111" s="19" t="str">
         <f>IF('K2'!B11="", "",'K2'!B11)</f>
@@ -26737,7 +26737,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Caren Moen Ringen</v>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26947,7 +26947,7 @@
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="15" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
-        <v>Mia Emilie Berntsen</v>
+        <v>Dragerengen, Ingrid</v>
       </c>
       <c r="B207" s="19" t="str">
         <f>IF('K3'!B5="", "",'K3'!B5)</f>
@@ -27017,7 +27017,7 @@
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="15" t="str">
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Eivor Melbybråten</v>
+        <v>Olsen, Thea</v>
       </c>
       <c r="B208" s="19" t="str">
         <f>IF('K3'!B8="", "",'K3'!B8)</f>
@@ -27087,7 +27087,7 @@
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="str">
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Ingrid Dragerengen</v>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B209" s="19" t="str">
         <f>IF('K3'!B9="", "",'K3'!B9)</f>
@@ -27157,7 +27157,7 @@
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="15" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
-        <v>Andrine Fuglerud Flugstad</v>
+        <v>Vestengen, Maria</v>
       </c>
       <c r="B210" s="19" t="str">
         <f>IF('K3'!B10="", "",'K3'!B10)</f>
@@ -33763,7 +33763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -33831,7 +33831,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
-        <v>Thea Olsen</v>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B4" s="41" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
@@ -33855,7 +33855,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
-        <v>Janne Ballangrud Seierstad</v>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B5" s="41" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
@@ -33879,7 +33879,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Sara Agnethe Granvang Tronrud</v>
+        <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
@@ -33903,7 +33903,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
-        <v>Lene Jøranli</v>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
@@ -36212,7 +36212,7 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
-        <v>Maria Vestengen</v>
+        <v>Berntsen, Mia Emilie</v>
       </c>
       <c r="B104" s="41" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!P104)</f>
@@ -36226,7 +36226,7 @@
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v>Selma Byfuglien Ulsrud</v>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
@@ -36254,7 +36254,7 @@
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
-        <v>Jessica Birgit Silber</v>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B107" s="41" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
@@ -36268,7 +36268,7 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
-        <v>Iselin Stangen Kjeldsrud</v>
+        <v>Nyhagen, Hedda</v>
       </c>
       <c r="B108" s="41" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!P108)</f>
@@ -36282,7 +36282,7 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
-        <v>Vilde Marie Thon Christensen</v>
+        <v>Ringen, Carene Moen</v>
       </c>
       <c r="B109" s="41" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!P109)</f>
@@ -36296,7 +36296,7 @@
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
-        <v>Ane Robøle Fegri</v>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B110" s="41" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
@@ -36310,7 +36310,7 @@
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
-        <v>Hedda Nyhagen</v>
+        <v>Ulsrud, Selma Byfuglien</v>
       </c>
       <c r="B111" s="41" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!P111)</f>
@@ -37640,7 +37640,7 @@
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
-        <v>Mia Emilie Berntsen</v>
+        <v>Dragerengen, Ingrid</v>
       </c>
       <c r="B206" s="41" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!P207)</f>
@@ -37654,7 +37654,7 @@
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
-        <v>Eivor Melbybråten</v>
+        <v>Olsen, Thea</v>
       </c>
       <c r="B207" s="41" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
@@ -37668,7 +37668,7 @@
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
-        <v>Ingrid Dragerengen</v>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B208" s="41" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
@@ -37682,7 +37682,7 @@
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
-        <v>Andrine Fuglerud Flugstad</v>
+        <v>Vestengen, Maria</v>
       </c>
       <c r="B209" s="41" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!P210)</f>
@@ -38998,7 +38998,7 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v>Caren Moen Ringen</v>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
@@ -44131,7 +44131,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -48526,7 +48526,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Sara Agnethe Granvang Tronrud</v>
+        <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
@@ -50985,7 +50985,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Sara Agnethe Granvang Tronrud</v>
+        <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
@@ -53446,7 +53446,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Sara Agnethe Granvang Tronrud</v>
+        <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
@@ -55905,7 +55905,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Selma Byfuglien Ulsrud</v>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
@@ -55929,7 +55929,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Caren Moen Ringen</v>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
@@ -55953,7 +55953,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Jessica Birgit Silber</v>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!B6)</f>
@@ -55977,7 +55977,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Lene Jøranli</v>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!B7)</f>
@@ -56001,7 +56001,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Iselin Stangen Kjeldsrud</v>
+        <v>Nyhagen, Hedda</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!B8)</f>
@@ -56025,7 +56025,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Vilde Marie Thon Christensen</v>
+        <v>Ringen, Carene Moen</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!B9)</f>
@@ -56049,7 +56049,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Ane Robøle Fegri</v>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!B10)</f>
@@ -56073,7 +56073,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v>Hedda Nyhagen</v>
+        <v>Ulsrud, Selma Byfuglien</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!B11)</f>
@@ -58364,7 +58364,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Selma Byfuglien Ulsrud</v>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
@@ -58388,7 +58388,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Caren Moen Ringen</v>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
@@ -58412,7 +58412,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Jessica Birgit Silber</v>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
@@ -58436,7 +58436,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Lene Jøranli</v>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
@@ -58460,7 +58460,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Iselin Stangen Kjeldsrud</v>
+        <v>Nyhagen, Hedda</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K2'!A8="", "",'K2'!E8)</f>
@@ -58484,7 +58484,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Vilde Marie Thon Christensen</v>
+        <v>Ringen, Carene Moen</v>
       </c>
       <c r="B9" s="25">
         <f>IF('K2'!A9="", "",'K2'!E9)</f>
@@ -58508,7 +58508,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Ane Robøle Fegri</v>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B10" s="25">
         <f>IF('K2'!A10="", "",'K2'!E10)</f>
@@ -58532,7 +58532,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v>Hedda Nyhagen</v>
+        <v>Ulsrud, Selma Byfuglien</v>
       </c>
       <c r="B11" s="25">
         <f>IF('K2'!A11="", "",'K2'!E11)</f>
@@ -60825,7 +60825,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Selma Byfuglien Ulsrud</v>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
@@ -60849,7 +60849,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Caren Moen Ringen</v>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
@@ -60873,7 +60873,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Jessica Birgit Silber</v>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!H6)</f>
@@ -60897,7 +60897,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Lene Jøranli</v>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!H7)</f>
@@ -60921,7 +60921,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Iselin Stangen Kjeldsrud</v>
+        <v>Nyhagen, Hedda</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!H8)</f>
@@ -60945,7 +60945,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Vilde Marie Thon Christensen</v>
+        <v>Ringen, Carene Moen</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!H9)</f>
@@ -60969,7 +60969,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Ane Robøle Fegri</v>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!H10)</f>
@@ -60993,7 +60993,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v>Hedda Nyhagen</v>
+        <v>Ulsrud, Selma Byfuglien</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!H11)</f>

--- a/jenter.xlsx
+++ b/jenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="33220" windowHeight="20460" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="27220" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>Dag1</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>Vestengen, Maria</t>
+  </si>
+  <si>
+    <t>Olsen, Malin</t>
+  </si>
+  <si>
+    <t>Dokken, Anne Birgit</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
 </sst>
 </file>
@@ -922,8 +931,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,14 +1026,16 @@
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1044,9 +1055,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>2.673611111111111E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1058,87 +1069,95 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="K5" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>3.1249999999999997E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="A6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="25">
+        <v>3.4490740740740745E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="K6" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.4490740740740745E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5306,9 +5325,9 @@
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
         <v>Berntsen, Mia Emilie</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF('K3'!A4="", "",'K3'!B4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!C4)</f>
@@ -5332,11 +5351,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K3'!A5="", "",'K3'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>2.2569444444444447E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K3'!A5="", "",'K3'!C5)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -5356,11 +5375,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K3'!A6="", "",'K3'!C6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -5380,11 +5399,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K3'!A7="", "",'K3'!C7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -5404,11 +5423,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K3'!A8="", "",'K3'!C8)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -5428,11 +5447,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>2.0486111111111113E-3</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K3'!A9="", "",'K3'!C9)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -5450,9 +5469,9 @@
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
         <v>Vestengen, Maria</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>IF('K3'!A10="", "",'K3'!B10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!C10)</f>
@@ -12739,21 +12758,21 @@
         <f>IF('K3'!A7="", "",'K3'!A7)</f>
         <v>Melbybråten, Eivor</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="19">
         <f>IF('K3'!B7="", "",'K3'!B7)</f>
-        <v/>
-      </c>
-      <c r="C4" s="20" t="str">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C67" si="0">IF(A4="","",B4)</f>
-        <v/>
-      </c>
-      <c r="D4" s="23" t="str">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="D4" s="23">
         <f>IF(A4="","",IFERROR(VLOOKUP(E4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E4" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E67" si="1">IF(A4="","",IFERROR(RANK(C4,C:C,1),"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="F4" s="19" t="str">
         <f>IF('K3'!E7="", "", 'K3'!E7)</f>
@@ -12787,13 +12806,13 @@
         <f t="shared" ref="M4:M67" si="5">IF(A4="","",IFERROR(RANK(K4,K:K,1),"-"))</f>
         <v>-</v>
       </c>
-      <c r="N4" s="27" t="str">
+      <c r="N4" s="27">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
-        <v/>
-      </c>
-      <c r="O4" s="28" t="str">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="O4" s="28">
         <f t="shared" ref="O4:O67" si="6">IF(A4="","",N4)</f>
-        <v/>
+        <v>1.8634259259259261E-3</v>
       </c>
       <c r="P4" s="22" t="str">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
@@ -12809,21 +12828,21 @@
         <f>IF('K3'!A6="", "",'K3'!A6)</f>
         <v>Flugstad, Andrine Fuglerud</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="19">
         <f>IF('K3'!B6="", "",'K3'!B6)</f>
-        <v/>
-      </c>
-      <c r="C5" s="20" t="str">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D5" s="23" t="str">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="D5" s="23">
         <f>IF(A5="","",IFERROR(VLOOKUP(E5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E5" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="E5" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="F5" s="19" t="str">
         <f>IF('K3'!E6="", "", 'K3'!E6)</f>
@@ -12857,13 +12876,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N5" s="27" t="str">
+      <c r="N5" s="27">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
-        <v/>
-      </c>
-      <c r="O5" s="28" t="str">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="O5" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
@@ -12879,21 +12898,21 @@
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
         <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="19">
         <f>IF('K2'!B7="", "",'K2'!B7)</f>
-        <v/>
-      </c>
-      <c r="C6" s="20" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="23" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="D6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(E6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E6" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="E6" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F6" s="19" t="str">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
@@ -12927,13 +12946,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N6" s="27" t="str">
+      <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v/>
-      </c>
-      <c r="O6" s="28" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
@@ -12949,21 +12968,21 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>14</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12997,13 +13016,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="28" t="str">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2.673611111111111E-3</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19741,11 +19760,11 @@
       </c>
       <c r="B104" s="19" t="str">
         <f>IF('K3'!B4="", "",'K3'!B4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C104" s="20" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(E104,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19789,11 +19808,11 @@
       </c>
       <c r="N104" s="27" t="str">
         <f>IF('K3'!K4="", "", 'K3'!K4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O104" s="28" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P104" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19809,21 +19828,21 @@
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
         <v>Christensen, Vilde Marie Thon</v>
       </c>
-      <c r="B105" s="19" t="str">
+      <c r="B105" s="19">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
-        <v/>
-      </c>
-      <c r="C105" s="20" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="C105" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D105" s="23" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="D105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E105" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="E105" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19857,13 +19876,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N105" s="27" t="str">
+      <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v/>
-      </c>
-      <c r="O105" s="28" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19877,23 +19896,23 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B106" s="19" t="str">
+        <v>Olsen, Malin</v>
+      </c>
+      <c r="B106" s="19">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C106" s="20" t="str">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="C106" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D106" s="23" t="str">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="D106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E106" s="23" t="str">
+        <v>16</v>
+      </c>
+      <c r="E106" s="23">
         <f t="shared" si="10"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19905,11 +19924,11 @@
       </c>
       <c r="H106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I106" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -19921,27 +19940,27 @@
       </c>
       <c r="L106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M106" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N106" s="27" t="str">
+        <v>-</v>
+      </c>
+      <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v/>
-      </c>
-      <c r="O106" s="28" t="str">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3.1249999999999997E-3</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q106" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -19949,21 +19968,21 @@
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
         <v>Jøranli, Lene</v>
       </c>
-      <c r="B107" s="19" t="str">
+      <c r="B107" s="19">
         <f>IF('K2'!B6="", "",'K2'!B6)</f>
-        <v/>
-      </c>
-      <c r="C107" s="20" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="C107" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D107" s="23" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="D107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(E107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E107" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="E107" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="F107" s="19" t="str">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
@@ -19997,13 +20016,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N107" s="27" t="str">
+      <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v/>
-      </c>
-      <c r="O107" s="28" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20019,21 +20038,21 @@
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Nyhagen, Hedda</v>
       </c>
-      <c r="B108" s="19" t="str">
+      <c r="B108" s="19">
         <f>IF('K2'!B8="", "",'K2'!B8)</f>
-        <v/>
-      </c>
-      <c r="C108" s="20" t="str">
+        <v>2.0717592592592593E-3</v>
+      </c>
+      <c r="C108" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D108" s="23" t="str">
+        <v>2.0717592592592593E-3</v>
+      </c>
+      <c r="D108" s="23">
         <f>IF(A108="","",IFERROR(VLOOKUP(E108,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E108" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="E108" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="F108" s="19" t="str">
         <f>IF('K2'!E8="", "", 'K2'!E8)</f>
@@ -20067,13 +20086,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N108" s="27" t="str">
+      <c r="N108" s="27">
         <f>IF('K2'!K8="", "", 'K2'!K8)</f>
-        <v/>
-      </c>
-      <c r="O108" s="28" t="str">
+        <v>2.0717592592592593E-3</v>
+      </c>
+      <c r="O108" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.0717592592592593E-3</v>
       </c>
       <c r="P108" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20089,21 +20108,21 @@
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
         <v>Ringen, Carene Moen</v>
       </c>
-      <c r="B109" s="19" t="str">
+      <c r="B109" s="19">
         <f>IF('K2'!B9="", "",'K2'!B9)</f>
-        <v/>
-      </c>
-      <c r="C109" s="20" t="str">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="C109" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D109" s="23" t="str">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="D109" s="23">
         <f>IF(A109="","",IFERROR(VLOOKUP(E109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E109" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="E109" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="F109" s="19" t="str">
         <f>IF('K2'!E9="", "", 'K2'!E9)</f>
@@ -20137,13 +20156,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N109" s="27" t="str">
+      <c r="N109" s="27">
         <f>IF('K2'!K9="", "", 'K2'!K9)</f>
-        <v/>
-      </c>
-      <c r="O109" s="28" t="str">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="O109" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.488425925925926E-3</v>
       </c>
       <c r="P109" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20159,21 +20178,21 @@
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
         <v>Silber, Jessica Birgit</v>
       </c>
-      <c r="B110" s="19" t="str">
+      <c r="B110" s="19">
         <f>IF('K2'!B10="", "",'K2'!B10)</f>
-        <v/>
-      </c>
-      <c r="C110" s="20" t="str">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="C110" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D110" s="23" t="str">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="D110" s="23">
         <f>IF(A110="","",IFERROR(VLOOKUP(E110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E110" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="E110" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="F110" s="19" t="str">
         <f>IF('K2'!E10="", "", 'K2'!E10)</f>
@@ -20207,13 +20226,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N110" s="27" t="str">
+      <c r="N110" s="27">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
-        <v/>
-      </c>
-      <c r="O110" s="28" t="str">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="O110" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.2685185185185182E-3</v>
       </c>
       <c r="P110" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20229,21 +20248,21 @@
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
         <v>Ulsrud, Selma Byfuglien</v>
       </c>
-      <c r="B111" s="19" t="str">
+      <c r="B111" s="19">
         <f>IF('K2'!B11="", "",'K2'!B11)</f>
-        <v/>
-      </c>
-      <c r="C111" s="20" t="str">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="C111" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D111" s="23" t="str">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="D111" s="23">
         <f>IF(A111="","",IFERROR(VLOOKUP(E111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E111" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="E111" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="F111" s="19" t="str">
         <f>IF('K2'!E11="", "", 'K2'!E11)</f>
@@ -20277,13 +20296,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N111" s="27" t="str">
+      <c r="N111" s="27">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v/>
-      </c>
-      <c r="O111" s="28" t="str">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="O111" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.4305555555555556E-3</v>
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26739,21 +26758,21 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Fegri, Ane Robøle</v>
       </c>
-      <c r="B204" s="19" t="str">
+      <c r="B204" s="19">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
-        <v/>
-      </c>
-      <c r="C204" s="20" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="C204" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D204" s="23" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="D204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E204" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="E204" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26787,13 +26806,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N204" s="27" t="str">
+      <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v/>
-      </c>
-      <c r="O204" s="28" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26877,23 +26896,23 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B206" s="19" t="str">
+        <v>Dokken, Anne Birgit</v>
+      </c>
+      <c r="B206" s="19">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C206" s="20" t="str">
+        <v>3.4490740740740745E-3</v>
+      </c>
+      <c r="C206" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D206" s="23" t="str">
+        <v>3.4490740740740745E-3</v>
+      </c>
+      <c r="D206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E206" s="23" t="str">
+        <v>15</v>
+      </c>
+      <c r="E206" s="23">
         <f t="shared" si="28"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26905,11 +26924,11 @@
       </c>
       <c r="H206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I206" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26921,27 +26940,27 @@
       </c>
       <c r="L206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M206" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="N206" s="27" t="str">
+        <v>-</v>
+      </c>
+      <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v/>
-      </c>
-      <c r="O206" s="28" t="str">
+        <v>3.4490740740740745E-3</v>
+      </c>
+      <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>3.4490740740740745E-3</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q206" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -26949,21 +26968,21 @@
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
         <v>Dragerengen, Ingrid</v>
       </c>
-      <c r="B207" s="19" t="str">
+      <c r="B207" s="19">
         <f>IF('K3'!B5="", "",'K3'!B5)</f>
-        <v/>
-      </c>
-      <c r="C207" s="20" t="str">
+        <v>2.2569444444444447E-3</v>
+      </c>
+      <c r="C207" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D207" s="23" t="str">
+        <v>2.2569444444444447E-3</v>
+      </c>
+      <c r="D207" s="23">
         <f>IF(A207="","",IFERROR(VLOOKUP(E207,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E207" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="E207" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="F207" s="19" t="str">
         <f>IF('K3'!E5="", "", 'K3'!E5)</f>
@@ -26997,13 +27016,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N207" s="27" t="str">
+      <c r="N207" s="27">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
-        <v/>
-      </c>
-      <c r="O207" s="28" t="str">
+        <v>2.2569444444444447E-3</v>
+      </c>
+      <c r="O207" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>2.2569444444444447E-3</v>
       </c>
       <c r="P207" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27019,21 +27038,21 @@
         <f>IF('K3'!A8="", "",'K3'!A8)</f>
         <v>Olsen, Thea</v>
       </c>
-      <c r="B208" s="19" t="str">
+      <c r="B208" s="19">
         <f>IF('K3'!B8="", "",'K3'!B8)</f>
-        <v/>
-      </c>
-      <c r="C208" s="20" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="C208" s="20">
         <f t="shared" ref="C208:C268" si="36">IF(A208="","",B208)</f>
-        <v/>
-      </c>
-      <c r="D208" s="23" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="D208" s="23">
         <f>IF(A208="","",IFERROR(VLOOKUP(E208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E208" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="E208" s="23">
         <f t="shared" ref="E208:E268" si="37">IF(A208="","",IFERROR(RANK(C208,C:C,1),"-"))</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="F208" s="19" t="str">
         <f>IF('K3'!E8="", "", 'K3'!E8)</f>
@@ -27067,13 +27086,13 @@
         <f t="shared" ref="M208:M260" si="41">IF(A208="","",IFERROR(RANK(K208,K:K,1),"-"))</f>
         <v>-</v>
       </c>
-      <c r="N208" s="27" t="str">
+      <c r="N208" s="27">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
-        <v/>
-      </c>
-      <c r="O208" s="28" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="O208" s="28">
         <f t="shared" ref="O208:O260" si="42">IF(A208="","",N208)</f>
-        <v/>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="P208" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27089,21 +27108,21 @@
         <f>IF('K3'!A9="", "",'K3'!A9)</f>
         <v>Seierstad, Janne Ballangrud</v>
       </c>
-      <c r="B209" s="19" t="str">
+      <c r="B209" s="19">
         <f>IF('K3'!B9="", "",'K3'!B9)</f>
-        <v/>
-      </c>
-      <c r="C209" s="20" t="str">
+        <v>2.0486111111111113E-3</v>
+      </c>
+      <c r="C209" s="20">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="D209" s="23" t="str">
+        <v>2.0486111111111113E-3</v>
+      </c>
+      <c r="D209" s="23">
         <f>IF(A209="","",IFERROR(VLOOKUP(E209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E209" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="E209" s="23">
         <f t="shared" si="37"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="F209" s="19" t="str">
         <f>IF('K3'!E9="", "", 'K3'!E9)</f>
@@ -27137,13 +27156,13 @@
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
-      <c r="N209" s="27" t="str">
+      <c r="N209" s="27">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
-        <v/>
-      </c>
-      <c r="O209" s="28" t="str">
+        <v>2.0486111111111113E-3</v>
+      </c>
+      <c r="O209" s="28">
         <f t="shared" si="42"/>
-        <v/>
+        <v>2.0486111111111113E-3</v>
       </c>
       <c r="P209" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27161,11 +27180,11 @@
       </c>
       <c r="B210" s="19" t="str">
         <f>IF('K3'!B10="", "",'K3'!B10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C210" s="20" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(E210,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27209,11 +27228,11 @@
       </c>
       <c r="N210" s="27" t="str">
         <f>IF('K3'!K10="", "", 'K3'!K10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O210" s="28" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P210" s="23" t="str">
         <f t="shared" si="35"/>
@@ -36240,15 +36259,15 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v/>
+        <v>Olsen, Malin</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C106" s="37" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -37626,15 +37645,15 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v/>
+        <v>Dokken, Anne Birgit</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C205" s="37" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -39803,7 +39822,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39898,14 +39917,16 @@
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -39925,9 +39946,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39942,14 +39963,16 @@
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -39969,9 +39992,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -39986,14 +40009,16 @@
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -40013,9 +40038,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40030,14 +40055,16 @@
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="25">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -40057,9 +40084,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40074,14 +40101,16 @@
       <c r="A8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="25">
+        <v>2.0717592592592593E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -40101,9 +40130,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.0717592592592593E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40118,14 +40147,16 @@
       <c r="A9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="10" t="str">
+      <c r="B9" s="25">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D9" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
@@ -40145,9 +40176,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.488425925925926E-3</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40162,14 +40193,16 @@
       <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="10" t="str">
+      <c r="B10" s="25">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D10" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
@@ -40189,9 +40222,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.2685185185185182E-3</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40206,14 +40239,16 @@
       <c r="A11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="str">
+      <c r="B11" s="25">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D11" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
@@ -40233,9 +40268,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.4305555555555556E-3</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44131,8 +44166,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="146" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44227,7 +44262,9 @@
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
         <v>-</v>
@@ -44256,7 +44293,7 @@
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -44271,14 +44308,16 @@
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>2.2569444444444447E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -44298,9 +44337,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>2.2569444444444447E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -44315,14 +44354,16 @@
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -44342,9 +44383,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44359,14 +44400,16 @@
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="25">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -44386,9 +44429,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.8634259259259261E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44403,14 +44446,16 @@
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="25">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -44430,9 +44475,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44447,14 +44492,16 @@
       <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="10" t="str">
+      <c r="B9" s="25">
+        <v>2.0486111111111113E-3</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D9" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
@@ -44474,9 +44521,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.0486111111111113E-3</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44491,7 +44538,9 @@
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -44520,7 +44569,7 @@
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -48530,11 +48579,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48550,15 +48599,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Olsen, Malin</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48574,15 +48623,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Dokken, Anne Birgit</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.4490740740740745E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -51009,15 +51058,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Olsen, Malin</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -51033,15 +51082,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Dokken, Anne Birgit</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -53470,15 +53519,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Olsen, Malin</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -53494,15 +53543,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Dokken, Anne Birgit</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -55909,11 +55958,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55933,11 +55982,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -55957,11 +56006,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.3032407407407407E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!C6)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -55981,11 +56030,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>2.1643518518518518E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!C7)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -56005,11 +56054,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>2.0717592592592593E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K2'!A8="", "",'K2'!C8)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -56029,11 +56078,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K2'!A9="", "",'K2'!C9)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -56053,11 +56102,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K2'!A10="", "",'K2'!C10)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -56077,11 +56126,11 @@
       </c>
       <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K2'!A11="", "",'K2'!C11)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>

--- a/jenter.xlsx
+++ b/jenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="460" windowWidth="27220" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="14720" yWindow="460" windowWidth="18800" windowHeight="20460" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>Dag1</t>
   </si>
@@ -931,8 +931,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,9 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -1055,9 +1057,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>2.673611111111111E-3</v>
+        <v>-</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1083,7 +1085,9 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -1101,9 +1105,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>3.1249999999999997E-3</v>
+        <v>-</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1129,7 +1133,9 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1147,9 +1153,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>3.4490740740740745E-3</v>
+        <v>-</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -7784,9 +7790,9 @@
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
         <v>Berntsen, Mia Emilie</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="25" t="str">
         <f>IF('K3'!A4="", "",'K3'!E4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!F4)</f>
@@ -7808,9 +7814,9 @@
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
         <v>Dragerengen, Ingrid</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="25" t="str">
         <f>IF('K3'!A5="", "",'K3'!E5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!F5)</f>
@@ -7834,11 +7840,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K3'!A6="", "",'K3'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.712962962962963E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K3'!A6="", "",'K3'!F6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -7858,11 +7864,11 @@
       </c>
       <c r="B7" s="25">
         <f>IF('K3'!A7="", "",'K3'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K3'!A7="", "",'K3'!F7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -7882,11 +7888,11 @@
       </c>
       <c r="B8" s="25">
         <f>IF('K3'!A8="", "",'K3'!E8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>5.0069444444444444E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K3'!A8="", "",'K3'!F8)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -7906,11 +7912,11 @@
       </c>
       <c r="B9" s="25">
         <f>IF('K3'!A9="", "",'K3'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>3.8576388888888889E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K3'!A9="", "",'K3'!F9)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -7928,9 +7934,9 @@
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
         <v>Vestengen, Maria</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="25" t="str">
         <f>IF('K3'!A10="", "",'K3'!E10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!F10)</f>
@@ -12774,21 +12780,21 @@
         <f t="shared" ref="E4:E67" si="1">IF(A4="","",IFERROR(RANK(C4,C:C,1),"-"))</f>
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="19">
         <f>IF('K3'!E7="", "", 'K3'!E7)</f>
-        <v/>
-      </c>
-      <c r="G4" s="21" t="str">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G67" si="2">IF(F4="","",F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="23" t="str">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="H4" s="23">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I4" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="I4" s="23">
         <f t="shared" ref="I4:I67" si="3">IF(A4="","",IFERROR(RANK(G4,G:G,1),"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="J4" s="19" t="str">
         <f>IF('K3'!H7="", "", 'K3'!H7)</f>
@@ -12808,11 +12814,11 @@
       </c>
       <c r="N4" s="27">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
-        <v>1.8634259259259261E-3</v>
+        <v>3.7326388888888895E-2</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" ref="O4:O67" si="6">IF(A4="","",N4)</f>
-        <v>1.8634259259259261E-3</v>
+        <v>3.7326388888888895E-2</v>
       </c>
       <c r="P4" s="22" t="str">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
@@ -12844,21 +12850,21 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="19">
         <f>IF('K3'!E6="", "", 'K3'!E6)</f>
-        <v/>
-      </c>
-      <c r="G5" s="21" t="str">
+        <v>3.712962962962963E-2</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H5" s="23" t="str">
+        <v>3.712962962962963E-2</v>
+      </c>
+      <c r="H5" s="23">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I5" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="I5" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="J5" s="19" t="str">
         <f>IF('K3'!H6="", "", 'K3'!H6)</f>
@@ -12878,11 +12884,11 @@
       </c>
       <c r="N5" s="27">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
-        <v>1.9907407407407408E-3</v>
+        <v>3.9120370370370375E-2</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" si="6"/>
-        <v>1.9907407407407408E-3</v>
+        <v>3.9120370370370375E-2</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
@@ -12916,11 +12922,11 @@
       </c>
       <c r="F6" s="19" t="str">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H6" s="23" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -12946,13 +12952,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="27" t="str">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v>2.1643518518518518E-3</v>
-      </c>
-      <c r="O6" s="28">
+        <v>-</v>
+      </c>
+      <c r="O6" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>2.1643518518518518E-3</v>
+        <v>-</v>
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
@@ -12986,11 +12992,11 @@
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13016,13 +13022,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>2.673611111111111E-3</v>
-      </c>
-      <c r="O7" s="28">
+        <v>-</v>
+      </c>
+      <c r="O7" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>2.673611111111111E-3</v>
+        <v>-</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19776,11 +19782,11 @@
       </c>
       <c r="F104" s="19" t="str">
         <f>IF('K3'!E4="", "", 'K3'!E4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G104" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(I104,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19844,21 +19850,21 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="F105" s="19" t="str">
+      <c r="F105" s="19">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
-        <v/>
-      </c>
-      <c r="G105" s="21" t="str">
+        <v>5.1469907407407402E-2</v>
+      </c>
+      <c r="G105" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H105" s="23" t="str">
+        <v>5.1469907407407402E-2</v>
+      </c>
+      <c r="H105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I105" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="I105" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19878,11 +19884,11 @@
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>2.2106481481481478E-3</v>
+        <v>5.3680555555555551E-2</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>2.2106481481481478E-3</v>
+        <v>5.3680555555555551E-2</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19916,11 +19922,11 @@
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G106" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19946,13 +19952,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27">
+      <c r="N106" s="27" t="str">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>3.1249999999999997E-3</v>
-      </c>
-      <c r="O106" s="28">
+        <v>-</v>
+      </c>
+      <c r="O106" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>3.1249999999999997E-3</v>
+        <v>-</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19984,21 +19990,21 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="F107" s="19" t="str">
+      <c r="F107" s="19">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
-        <v/>
-      </c>
-      <c r="G107" s="21" t="str">
+        <v>4.0856481481481487E-2</v>
+      </c>
+      <c r="G107" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H107" s="23" t="str">
+        <v>4.0856481481481487E-2</v>
+      </c>
+      <c r="H107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(I107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I107" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="I107" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="J107" s="19" t="str">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
@@ -20018,11 +20024,11 @@
       </c>
       <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v>2.3032407407407407E-3</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v>2.3032407407407407E-3</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20054,21 +20060,21 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="F108" s="19" t="str">
+      <c r="F108" s="19">
         <f>IF('K2'!E8="", "", 'K2'!E8)</f>
-        <v/>
-      </c>
-      <c r="G108" s="21" t="str">
+        <v>4.5787037037037036E-2</v>
+      </c>
+      <c r="G108" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H108" s="23" t="str">
+        <v>4.5787037037037036E-2</v>
+      </c>
+      <c r="H108" s="23">
         <f>IF(A108="","",IFERROR(VLOOKUP(I108,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I108" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="I108" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="J108" s="19" t="str">
         <f>IF('K2'!H8="", "", 'K2'!H8)</f>
@@ -20088,11 +20094,11 @@
       </c>
       <c r="N108" s="27">
         <f>IF('K2'!K8="", "", 'K2'!K8)</f>
-        <v>2.0717592592592593E-3</v>
+        <v>4.7858796296296295E-2</v>
       </c>
       <c r="O108" s="28">
         <f t="shared" si="15"/>
-        <v>2.0717592592592593E-3</v>
+        <v>4.7858796296296295E-2</v>
       </c>
       <c r="P108" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20126,11 +20132,11 @@
       </c>
       <c r="F109" s="19" t="str">
         <f>IF('K2'!E9="", "", 'K2'!E9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G109" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H109" s="23" t="str">
         <f>IF(A109="","",IFERROR(VLOOKUP(I109,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20156,13 +20162,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N109" s="27">
+      <c r="N109" s="27" t="str">
         <f>IF('K2'!K9="", "", 'K2'!K9)</f>
-        <v>2.488425925925926E-3</v>
-      </c>
-      <c r="O109" s="28">
+        <v>-</v>
+      </c>
+      <c r="O109" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>2.488425925925926E-3</v>
+        <v>-</v>
       </c>
       <c r="P109" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20194,21 +20200,21 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F110" s="19" t="str">
+      <c r="F110" s="19">
         <f>IF('K2'!E10="", "", 'K2'!E10)</f>
-        <v/>
-      </c>
-      <c r="G110" s="21" t="str">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="G110" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H110" s="23" t="str">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="H110" s="23">
         <f>IF(A110="","",IFERROR(VLOOKUP(I110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I110" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="I110" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="J110" s="19" t="str">
         <f>IF('K2'!H10="", "", 'K2'!H10)</f>
@@ -20228,11 +20234,11 @@
       </c>
       <c r="N110" s="27">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
-        <v>2.2685185185185182E-3</v>
+        <v>4.2916666666666665E-2</v>
       </c>
       <c r="O110" s="28">
         <f t="shared" si="15"/>
-        <v>2.2685185185185182E-3</v>
+        <v>4.2916666666666665E-2</v>
       </c>
       <c r="P110" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20264,21 +20270,21 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="F111" s="19" t="str">
+      <c r="F111" s="19">
         <f>IF('K2'!E11="", "", 'K2'!E11)</f>
-        <v/>
-      </c>
-      <c r="G111" s="21" t="str">
+        <v>5.2349537037037042E-2</v>
+      </c>
+      <c r="G111" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H111" s="23" t="str">
+        <v>5.2349537037037042E-2</v>
+      </c>
+      <c r="H111" s="23">
         <f>IF(A111="","",IFERROR(VLOOKUP(I111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I111" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="I111" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="J111" s="19" t="str">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
@@ -20298,11 +20304,11 @@
       </c>
       <c r="N111" s="27">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v>2.4305555555555556E-3</v>
+        <v>5.4780092592592596E-2</v>
       </c>
       <c r="O111" s="28">
         <f t="shared" si="15"/>
-        <v>2.4305555555555556E-3</v>
+        <v>5.4780092592592596E-2</v>
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26774,21 +26780,21 @@
         <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="F204" s="19" t="str">
+      <c r="F204" s="19">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
-        <v/>
-      </c>
-      <c r="G204" s="21" t="str">
+        <v>4.2719907407407408E-2</v>
+      </c>
+      <c r="G204" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H204" s="23" t="str">
+        <v>4.2719907407407408E-2</v>
+      </c>
+      <c r="H204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I204" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="I204" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="J204" s="19" t="str">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
@@ -26808,11 +26814,11 @@
       </c>
       <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v>2.1643518518518518E-3</v>
+        <v>4.4884259259259263E-2</v>
       </c>
       <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v>2.1643518518518518E-3</v>
+        <v>4.4884259259259263E-2</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26916,11 +26922,11 @@
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G206" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26946,13 +26952,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27">
+      <c r="N206" s="27" t="str">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>3.4490740740740745E-3</v>
-      </c>
-      <c r="O206" s="28">
+        <v>-</v>
+      </c>
+      <c r="O206" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>3.4490740740740745E-3</v>
+        <v>-</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26986,11 +26992,11 @@
       </c>
       <c r="F207" s="19" t="str">
         <f>IF('K3'!E5="", "", 'K3'!E5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G207" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(I207,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27016,13 +27022,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N207" s="27">
+      <c r="N207" s="27" t="str">
         <f>IF('K3'!K5="", "", 'K3'!K5)</f>
-        <v>2.2569444444444447E-3</v>
-      </c>
-      <c r="O207" s="28">
+        <v>-</v>
+      </c>
+      <c r="O207" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>2.2569444444444447E-3</v>
+        <v>-</v>
       </c>
       <c r="P207" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27054,21 +27060,21 @@
         <f t="shared" ref="E208:E268" si="37">IF(A208="","",IFERROR(RANK(C208,C:C,1),"-"))</f>
         <v>7</v>
       </c>
-      <c r="F208" s="19" t="str">
+      <c r="F208" s="19">
         <f>IF('K3'!E8="", "", 'K3'!E8)</f>
-        <v/>
-      </c>
-      <c r="G208" s="21" t="str">
+        <v>5.0069444444444444E-2</v>
+      </c>
+      <c r="G208" s="21">
         <f t="shared" ref="G208:G260" si="38">IF(F208="","",F208)</f>
-        <v/>
-      </c>
-      <c r="H208" s="23" t="str">
+        <v>5.0069444444444444E-2</v>
+      </c>
+      <c r="H208" s="23">
         <f>IF(A208="","",IFERROR(VLOOKUP(I208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I208" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="I208" s="23">
         <f t="shared" ref="I208:I260" si="39">IF(A208="","",IFERROR(RANK(G208,G:G,1),"-"))</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="J208" s="19" t="str">
         <f>IF('K3'!H8="", "", 'K3'!H8)</f>
@@ -27088,11 +27094,11 @@
       </c>
       <c r="N208" s="27">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
-        <v>2.2106481481481478E-3</v>
+        <v>5.2280092592592593E-2</v>
       </c>
       <c r="O208" s="28">
         <f t="shared" ref="O208:O260" si="42">IF(A208="","",N208)</f>
-        <v>2.2106481481481478E-3</v>
+        <v>5.2280092592592593E-2</v>
       </c>
       <c r="P208" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27124,21 +27130,21 @@
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="F209" s="19" t="str">
+      <c r="F209" s="19">
         <f>IF('K3'!E9="", "", 'K3'!E9)</f>
-        <v/>
-      </c>
-      <c r="G209" s="21" t="str">
+        <v>3.8576388888888889E-2</v>
+      </c>
+      <c r="G209" s="21">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H209" s="23" t="str">
+        <v>3.8576388888888889E-2</v>
+      </c>
+      <c r="H209" s="23">
         <f>IF(A209="","",IFERROR(VLOOKUP(I209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I209" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="I209" s="23">
         <f t="shared" si="39"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="J209" s="19" t="str">
         <f>IF('K3'!H9="", "", 'K3'!H9)</f>
@@ -27158,11 +27164,11 @@
       </c>
       <c r="N209" s="27">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
-        <v>2.0486111111111113E-3</v>
+        <v>4.0625000000000001E-2</v>
       </c>
       <c r="O209" s="28">
         <f t="shared" si="42"/>
-        <v>2.0486111111111113E-3</v>
+        <v>4.0625000000000001E-2</v>
       </c>
       <c r="P209" s="23" t="str">
         <f t="shared" si="35"/>
@@ -27196,11 +27202,11 @@
       </c>
       <c r="F210" s="19" t="str">
         <f>IF('K3'!E10="", "", 'K3'!E10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G210" s="21" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(I210,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -39822,7 +39828,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39928,14 +39934,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>5.1469907407407402E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -39948,7 +39956,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>2.2106481481481478E-3</v>
+        <v>5.3680555555555551E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39974,14 +39982,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>4.2719907407407408E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -39994,7 +40004,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>2.1643518518518518E-3</v>
+        <v>4.4884259259259263E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -40020,14 +40030,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>4.0856481481481487E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -40040,7 +40052,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>2.3032407407407407E-3</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40066,7 +40078,9 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -40084,9 +40098,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2.1643518518518518E-3</v>
+        <v>-</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40112,14 +40126,16 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10" t="str">
+      <c r="E8" s="25">
+        <v>4.5787037037037036E-2</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
@@ -40132,7 +40148,7 @@
       </c>
       <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v>2.0717592592592593E-3</v>
+        <v>4.7858796296296295E-2</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40158,7 +40174,9 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -40176,9 +40194,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2.488425925925926E-3</v>
+        <v>-</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40204,14 +40222,16 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10" t="str">
+      <c r="E10" s="25">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
@@ -40224,7 +40244,7 @@
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>2.2685185185185182E-3</v>
+        <v>4.2916666666666665E-2</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40250,14 +40270,16 @@
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10" t="str">
+      <c r="E11" s="25">
+        <v>5.2349537037037042E-2</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
@@ -40270,7 +40292,7 @@
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>2.4305555555555556E-3</v>
+        <v>5.4780092592592596E-2</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44166,13 +44188,13 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
@@ -44273,7 +44295,9 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -44319,7 +44343,9 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -44337,9 +44363,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>2.2569444444444447E-3</v>
+        <v>-</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -44365,14 +44391,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>3.712962962962963E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -44385,7 +44413,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>1.9907407407407408E-3</v>
+        <v>3.9120370370370375E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44411,14 +44439,16 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="25">
+        <v>3.5462962962962967E-2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
@@ -44431,7 +44461,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>1.8634259259259261E-3</v>
+        <v>3.7326388888888895E-2</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44457,14 +44487,16 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10" t="str">
+      <c r="E8" s="25">
+        <v>5.0069444444444444E-2</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
@@ -44477,7 +44509,7 @@
       </c>
       <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v>2.2106481481481478E-3</v>
+        <v>5.2280092592592593E-2</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44503,14 +44535,16 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="25">
+        <v>3.8576388888888889E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
@@ -44523,7 +44557,7 @@
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>2.0486111111111113E-3</v>
+        <v>4.0625000000000001E-2</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44549,7 +44583,9 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -51036,9 +51072,9 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Tronrud, Sara Agnethe Granvang</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="25" t="str">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
@@ -51060,9 +51096,9 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Olsen, Malin</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="25" t="str">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
@@ -51084,9 +51120,9 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Dokken, Anne Birgit</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="25" t="str">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
@@ -58417,11 +58453,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>5.1469907407407402E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58441,11 +58477,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>4.2719907407407408E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -58465,11 +58501,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>4.0856481481481487E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!F6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -58487,9 +58523,9 @@
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
         <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="25" t="str">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K2'!A7="", "",'K2'!F7)</f>
@@ -58513,11 +58549,11 @@
       </c>
       <c r="B8" s="25">
         <f>IF('K2'!A8="", "",'K2'!E8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>4.5787037037037036E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K2'!A8="", "",'K2'!F8)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -58535,9 +58571,9 @@
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
         <v>Ringen, Carene Moen</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="25" t="str">
         <f>IF('K2'!A9="", "",'K2'!E9)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K2'!A9="", "",'K2'!F9)</f>
@@ -58561,11 +58597,11 @@
       </c>
       <c r="B10" s="25">
         <f>IF('K2'!A10="", "",'K2'!E10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>4.0648148148148149E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K2'!A10="", "",'K2'!F10)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -58585,11 +58621,11 @@
       </c>
       <c r="B11" s="25">
         <f>IF('K2'!A11="", "",'K2'!E11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>5.2349537037037042E-2</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K2'!A11="", "",'K2'!F11)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>

--- a/jenter.xlsx
+++ b/jenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="460" windowWidth="18800" windowHeight="20460" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32440" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Dag1</t>
   </si>
@@ -931,8 +931,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,14 +1048,16 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>3.6342592592592593E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -1096,7 +1098,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -1144,7 +1148,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -10251,9 +10257,9 @@
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
         <v>Berntsen, Mia Emilie</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF('K3'!A4="", "",'K3'!H4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K3'!A4="", "",'K3'!I4)</f>
@@ -10275,9 +10281,9 @@
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
         <v>Dragerengen, Ingrid</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="36" t="str">
         <f>IF('K3'!A5="", "",'K3'!H5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K3'!A5="", "",'K3'!I5)</f>
@@ -10301,11 +10307,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K3'!A6="", "",'K3'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.8634259259259262E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K3'!A6="", "",'K3'!I6)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -10325,11 +10331,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K3'!A7="", "",'K3'!H7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>2.5752314814814815E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K3'!A7="", "",'K3'!I7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -10349,11 +10355,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K3'!A8="", "",'K3'!H8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>3.1909722222222221E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K3'!A8="", "",'K3'!I8)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -10373,11 +10379,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K3'!A9="", "",'K3'!H9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K3'!A9="", "",'K3'!I9)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -10395,9 +10401,9 @@
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
         <v>Vestengen, Maria</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>IF('K3'!A10="", "",'K3'!H10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K3'!A10="", "",'K3'!I10)</f>
@@ -12796,37 +12802,37 @@
         <f t="shared" ref="I4:I67" si="3">IF(A4="","",IFERROR(RANK(G4,G:G,1),"-"))</f>
         <v>1</v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="J4" s="19">
         <f>IF('K3'!H7="", "", 'K3'!H7)</f>
-        <v/>
-      </c>
-      <c r="K4" s="29" t="str">
+        <v>2.5752314814814815E-2</v>
+      </c>
+      <c r="K4" s="29">
         <f t="shared" ref="K4:K67" si="4">IF(J4="","",J4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="23" t="str">
+        <v>2.5752314814814815E-2</v>
+      </c>
+      <c r="L4" s="23">
         <f>IF(A4="","",IFERROR(VLOOKUP(M4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="M4" s="23">
         <f t="shared" ref="M4:M67" si="5">IF(A4="","",IFERROR(RANK(K4,K:K,1),"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="N4" s="27">
         <f>IF('K3'!K7="", "", 'K3'!K7)</f>
-        <v>3.7326388888888895E-2</v>
+        <v>6.3078703703703706E-2</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" ref="O4:O67" si="6">IF(A4="","",N4)</f>
-        <v>3.7326388888888895E-2</v>
-      </c>
-      <c r="P4" s="22" t="str">
+        <v>6.3078703703703706E-2</v>
+      </c>
+      <c r="P4" s="22">
         <f>IF(A4="", "",IFERROR(IF(D4+H4+L4=0,"",D4+H4+L4),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="Q4" s="23" t="str">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="23">
         <f t="shared" ref="Q4:Q67" si="7">IF(A4="","", IFERROR(RANK(P4,P:P,0),"-"))</f>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -12866,37 +12872,37 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="19">
         <f>IF('K3'!H6="", "", 'K3'!H6)</f>
-        <v/>
-      </c>
-      <c r="K5" s="29" t="str">
+        <v>2.8634259259259262E-2</v>
+      </c>
+      <c r="K5" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L5" s="23" t="str">
+        <v>2.8634259259259262E-2</v>
+      </c>
+      <c r="L5" s="23">
         <f>IF(A5="","",IFERROR(VLOOKUP(M5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="M5" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="N5" s="27">
         <f>IF('K3'!K6="", "", 'K3'!K6)</f>
-        <v>3.9120370370370375E-2</v>
+        <v>6.7754629629629637E-2</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" si="6"/>
-        <v>3.9120370370370375E-2</v>
-      </c>
-      <c r="P5" s="23" t="str">
+        <v>6.7754629629629637E-2</v>
+      </c>
+      <c r="P5" s="23">
         <f t="shared" ref="P5:P68" si="8">IF(A5="", "",IFERROR(IF(D5+H5+L5=0,"",D5+H5+L5),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="Q5" s="23" t="str">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -12936,21 +12942,21 @@
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="19">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
-        <v/>
-      </c>
-      <c r="K6" s="29" t="str">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="K6" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L6" s="23" t="str">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="L6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(M6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M6" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="M6" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="N6" s="27" t="str">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
@@ -13006,21 +13012,21 @@
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="19">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="29" t="str">
+        <v>3.6342592592592593E-2</v>
+      </c>
+      <c r="K7" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L7" s="23" t="str">
+        <v>3.6342592592592593E-2</v>
+      </c>
+      <c r="L7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M7" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="M7" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
@@ -19798,11 +19804,11 @@
       </c>
       <c r="J104" s="19" t="str">
         <f>IF('K3'!H4="", "", 'K3'!H4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K104" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L104" s="23" t="str">
         <f>IF(A104="","",IFERROR(VLOOKUP(M104,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19866,37 +19872,37 @@
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="J105" s="19" t="str">
+      <c r="J105" s="19">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
-        <v/>
-      </c>
-      <c r="K105" s="29" t="str">
+        <v>3.516203703703704E-2</v>
+      </c>
+      <c r="K105" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L105" s="23" t="str">
+        <v>3.516203703703704E-2</v>
+      </c>
+      <c r="L105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M105" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="M105" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>5.3680555555555551E-2</v>
+        <v>8.8842592592592584E-2</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>5.3680555555555551E-2</v>
-      </c>
-      <c r="P105" s="23" t="str">
+        <v>8.8842592592592584E-2</v>
+      </c>
+      <c r="P105" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q105" s="23" t="str">
+        <v>94</v>
+      </c>
+      <c r="Q105" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -19938,11 +19944,11 @@
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K106" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20006,37 +20012,37 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="J107" s="19" t="str">
+      <c r="J107" s="19">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
-        <v/>
-      </c>
-      <c r="K107" s="29" t="str">
+        <v>3.1574074074074074E-2</v>
+      </c>
+      <c r="K107" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L107" s="23" t="str">
+        <v>3.1574074074074074E-2</v>
+      </c>
+      <c r="L107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(M107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M107" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="M107" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v>4.3159722222222224E-2</v>
+        <v>7.4733796296296298E-2</v>
       </c>
       <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v>4.3159722222222224E-2</v>
-      </c>
-      <c r="P107" s="23" t="str">
+        <v>7.4733796296296298E-2</v>
+      </c>
+      <c r="P107" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q107" s="23" t="str">
+        <v>114</v>
+      </c>
+      <c r="Q107" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -20078,11 +20084,11 @@
       </c>
       <c r="J108" s="19" t="str">
         <f>IF('K2'!H8="", "", 'K2'!H8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K108" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L108" s="23" t="str">
         <f>IF(A108="","",IFERROR(VLOOKUP(M108,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20092,13 +20098,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N108" s="27">
+      <c r="N108" s="27" t="str">
         <f>IF('K2'!K8="", "", 'K2'!K8)</f>
-        <v>4.7858796296296295E-2</v>
-      </c>
-      <c r="O108" s="28">
+        <v>-</v>
+      </c>
+      <c r="O108" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>4.7858796296296295E-2</v>
+        <v>-</v>
       </c>
       <c r="P108" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20148,11 +20154,11 @@
       </c>
       <c r="J109" s="19" t="str">
         <f>IF('K2'!H9="", "", 'K2'!H9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K109" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L109" s="23" t="str">
         <f>IF(A109="","",IFERROR(VLOOKUP(M109,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20216,37 +20222,37 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J110" s="19" t="str">
+      <c r="J110" s="19">
         <f>IF('K2'!H10="", "", 'K2'!H10)</f>
-        <v/>
-      </c>
-      <c r="K110" s="29" t="str">
+        <v>3.1180555555555555E-2</v>
+      </c>
+      <c r="K110" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L110" s="23" t="str">
+        <v>3.1180555555555555E-2</v>
+      </c>
+      <c r="L110" s="23">
         <f>IF(A110="","",IFERROR(VLOOKUP(M110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M110" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="M110" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="N110" s="27">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
-        <v>4.2916666666666665E-2</v>
+        <v>7.4097222222222217E-2</v>
       </c>
       <c r="O110" s="28">
         <f t="shared" si="15"/>
-        <v>4.2916666666666665E-2</v>
-      </c>
-      <c r="P110" s="23" t="str">
+        <v>7.4097222222222217E-2</v>
+      </c>
+      <c r="P110" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q110" s="23" t="str">
+        <v>126</v>
+      </c>
+      <c r="Q110" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -20288,11 +20294,11 @@
       </c>
       <c r="J111" s="19" t="str">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K111" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(M111,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20302,13 +20308,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N111" s="27">
+      <c r="N111" s="27" t="str">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v>5.4780092592592596E-2</v>
-      </c>
-      <c r="O111" s="28">
+        <v>-</v>
+      </c>
+      <c r="O111" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>5.4780092592592596E-2</v>
+        <v>-</v>
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26796,37 +26802,37 @@
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="J204" s="19" t="str">
+      <c r="J204" s="19">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
-        <v/>
-      </c>
-      <c r="K204" s="29" t="str">
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="K204" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L204" s="23" t="str">
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="L204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M204" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="M204" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v>4.4884259259259263E-2</v>
+        <v>7.7800925925925926E-2</v>
       </c>
       <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v>4.4884259259259263E-2</v>
-      </c>
-      <c r="P204" s="23" t="str">
+        <v>7.7800925925925926E-2</v>
+      </c>
+      <c r="P204" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q204" s="23" t="str">
+        <v>117</v>
+      </c>
+      <c r="Q204" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
@@ -26938,11 +26944,11 @@
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K206" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27008,11 +27014,11 @@
       </c>
       <c r="J207" s="19" t="str">
         <f>IF('K3'!H5="", "", 'K3'!H5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K207" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L207" s="23" t="str">
         <f>IF(A207="","",IFERROR(VLOOKUP(M207,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27076,37 +27082,37 @@
         <f t="shared" ref="I208:I260" si="39">IF(A208="","",IFERROR(RANK(G208,G:G,1),"-"))</f>
         <v>8</v>
       </c>
-      <c r="J208" s="19" t="str">
+      <c r="J208" s="19">
         <f>IF('K3'!H8="", "", 'K3'!H8)</f>
-        <v/>
-      </c>
-      <c r="K208" s="29" t="str">
+        <v>3.1909722222222221E-2</v>
+      </c>
+      <c r="K208" s="29">
         <f t="shared" ref="K208:K260" si="40">IF(J208="","",J208)</f>
-        <v/>
-      </c>
-      <c r="L208" s="23" t="str">
+        <v>3.1909722222222221E-2</v>
+      </c>
+      <c r="L208" s="23">
         <f>IF(A208="","",IFERROR(VLOOKUP(M208,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M208" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="M208" s="23">
         <f t="shared" ref="M208:M260" si="41">IF(A208="","",IFERROR(RANK(K208,K:K,1),"-"))</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="N208" s="27">
         <f>IF('K3'!K8="", "", 'K3'!K8)</f>
-        <v>5.2280092592592593E-2</v>
+        <v>8.4189814814814815E-2</v>
       </c>
       <c r="O208" s="28">
         <f t="shared" ref="O208:O260" si="42">IF(A208="","",N208)</f>
-        <v>5.2280092592592593E-2</v>
-      </c>
-      <c r="P208" s="23" t="str">
+        <v>8.4189814814814815E-2</v>
+      </c>
+      <c r="P208" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q208" s="23" t="str">
+        <v>108</v>
+      </c>
+      <c r="Q208" s="23">
         <f t="shared" ref="Q208:Q260" si="43">IF(A208="","", IFERROR(RANK(P208,P:P,0),"-"))</f>
-        <v>-</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
@@ -27146,37 +27152,37 @@
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="J209" s="19" t="str">
+      <c r="J209" s="19">
         <f>IF('K3'!H9="", "", 'K3'!H9)</f>
-        <v/>
-      </c>
-      <c r="K209" s="29" t="str">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="K209" s="29">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L209" s="23" t="str">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="L209" s="23">
         <f>IF(A209="","",IFERROR(VLOOKUP(M209,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M209" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="M209" s="23">
         <f t="shared" si="41"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="N209" s="27">
         <f>IF('K3'!K9="", "", 'K3'!K9)</f>
-        <v>4.0625000000000001E-2</v>
+        <v>6.896990740740741E-2</v>
       </c>
       <c r="O209" s="28">
         <f t="shared" si="42"/>
-        <v>4.0625000000000001E-2</v>
-      </c>
-      <c r="P209" s="23" t="str">
+        <v>6.896990740740741E-2</v>
+      </c>
+      <c r="P209" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q209" s="23" t="str">
+        <v>200</v>
+      </c>
+      <c r="Q209" s="23">
         <f t="shared" si="43"/>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
@@ -27218,11 +27224,11 @@
       </c>
       <c r="J210" s="19" t="str">
         <f>IF('K3'!H10="", "", 'K3'!H10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K210" s="29" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L210" s="23" t="str">
         <f>IF(A210="","",IFERROR(VLOOKUP(M210,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -33858,13 +33864,13 @@
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
         <v>Flugstad, Andrine Fuglerud</v>
       </c>
-      <c r="B4" s="41" t="str">
+      <c r="B4" s="41">
         <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
-        <v>-</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>220</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -33882,13 +33888,13 @@
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
         <v>Melbybråten, Eivor</v>
       </c>
-      <c r="B5" s="41" t="str">
+      <c r="B5" s="41">
         <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
-        <v>-</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>300</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF(D1D2D3!A4="", "",D1D2D3!Q4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -36253,13 +36259,13 @@
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
         <v>Christensen, Vilde Marie Thon</v>
       </c>
-      <c r="B105" s="41" t="str">
+      <c r="B105" s="41">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v>-</v>
-      </c>
-      <c r="C105" s="37" t="str">
+        <v>94</v>
+      </c>
+      <c r="C105" s="37">
         <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -36281,13 +36287,13 @@
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
         <v>Jøranli, Lene</v>
       </c>
-      <c r="B107" s="41" t="str">
+      <c r="B107" s="41">
         <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
-        <v>-</v>
-      </c>
-      <c r="C107" s="37" t="str">
+        <v>114</v>
+      </c>
+      <c r="C107" s="37">
         <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -36323,13 +36329,13 @@
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
         <v>Silber, Jessica Birgit</v>
       </c>
-      <c r="B110" s="41" t="str">
+      <c r="B110" s="41">
         <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
-        <v>-</v>
-      </c>
-      <c r="C110" s="37" t="str">
+        <v>126</v>
+      </c>
+      <c r="C110" s="37">
         <f>IF(D1D2D3!A110="", "",D1D2D3!Q110)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -37681,13 +37687,13 @@
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v>Olsen, Thea</v>
       </c>
-      <c r="B207" s="41" t="str">
+      <c r="B207" s="41">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
-        <v>-</v>
-      </c>
-      <c r="C207" s="37" t="str">
+        <v>108</v>
+      </c>
+      <c r="C207" s="37">
         <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -37695,13 +37701,13 @@
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
         <v>Seierstad, Janne Ballangrud</v>
       </c>
-      <c r="B208" s="41" t="str">
+      <c r="B208" s="41">
         <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
-        <v>-</v>
-      </c>
-      <c r="C208" s="37" t="str">
+        <v>200</v>
+      </c>
+      <c r="C208" s="37">
         <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -39025,13 +39031,13 @@
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
         <v>Fegri, Ane Robøle</v>
       </c>
-      <c r="B303" s="41" t="str">
+      <c r="B303" s="41">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
-        <v>-</v>
-      </c>
-      <c r="C303" s="37" t="str">
+        <v>117</v>
+      </c>
+      <c r="C303" s="37">
         <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -39828,7 +39834,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39945,26 +39951,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>3.516203703703704E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>5.3680555555555551E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>8.8842592592592584E-2</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -39993,26 +40001,28 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>4.4884259259259263E-2</v>
-      </c>
-      <c r="L5" s="10" t="str">
+        <v>7.7800925925925926E-2</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v>-</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -40041,26 +40051,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>3.1574074074074074E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>4.3159722222222224E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>7.4733796296296298E-2</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -40089,14 +40101,16 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="25">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
@@ -40137,7 +40151,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -40146,9 +40162,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4.7858796296296295E-2</v>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40185,7 +40201,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -40233,26 +40251,28 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="25">
+        <v>3.1180555555555555E-2</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J10" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>4.2916666666666665E-2</v>
-      </c>
-      <c r="L10" s="10" t="str">
+        <v>7.4097222222222217E-2</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M10" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -40281,7 +40301,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -40290,9 +40312,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>5.4780092592592596E-2</v>
+        <v>-</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -44188,8 +44210,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="146" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44306,7 +44328,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -44354,7 +44378,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -44402,26 +44428,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>2.8634259259259262E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>3.9120370370370375E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>6.7754629629629637E-2</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -44450,26 +44478,28 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="25">
+        <v>2.5752314814814815E-2</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>3.7326388888888895E-2</v>
-      </c>
-      <c r="L7" s="10" t="str">
+        <v>6.3078703703703706E-2</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M7" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -44498,26 +44528,28 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="10" t="str">
+      <c r="H8" s="25">
+        <v>3.1909722222222221E-2</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J8" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v>5.2280092592592593E-2</v>
-      </c>
-      <c r="L8" s="10" t="str">
+        <v>8.4189814814814815E-2</v>
+      </c>
+      <c r="L8" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M8" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -44546,26 +44578,28 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="10" t="str">
+      <c r="H9" s="25">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J9" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>4.0625000000000001E-2</v>
-      </c>
-      <c r="L9" s="10" t="str">
+        <v>6.896990740740741E-2</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M9" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -44594,7 +44628,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -53535,11 +53571,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.6342592592592593E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -53557,9 +53593,9 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Olsen, Malin</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="36" t="str">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
@@ -53581,9 +53617,9 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Dokken, Anne Birgit</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="36" t="str">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
@@ -60914,11 +60950,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.516203703703704E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60938,11 +60974,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -60962,11 +60998,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.1574074074074074E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -60986,11 +61022,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -61008,9 +61044,9 @@
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Nyhagen, Hedda</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K2'!A8="", "",'K2'!H8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K2'!A8="", "",'K2'!I8)</f>
@@ -61032,9 +61068,9 @@
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
         <v>Ringen, Carene Moen</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="36" t="str">
         <f>IF('K2'!A9="", "",'K2'!H9)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K2'!A9="", "",'K2'!I9)</f>
@@ -61058,11 +61094,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!H10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>3.1180555555555555E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K2'!A10="", "",'K2'!I10)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -61080,9 +61116,9 @@
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
         <v>Ulsrud, Selma Byfuglien</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="36" t="str">
         <f>IF('K2'!A11="", "",'K2'!H11)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!I11)</f>

--- a/jenter.xlsx
+++ b/jenter.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32440" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32440" windowHeight="20460" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -349,6 +349,25 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -457,9 +476,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -583,8 +610,16 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,7 +966,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -5257,8 +5292,9 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7716,8 +7752,9 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10177,18 +10214,19 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet12" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10252,7 +10290,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K3'!A4="", "",'K3'!A4)</f>
         <v>Berntsen, Mia Emilie</v>
@@ -10276,7 +10314,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K3'!A5="", "",'K3'!A5)</f>
         <v>Dragerengen, Ingrid</v>
@@ -10302,16 +10340,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K3'!A6="", "",'K3'!A6)</f>
-        <v>Flugstad, Andrine Fuglerud</v>
+        <f>IF('K3'!A7="", "",'K3'!A7)</f>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K3'!A6="", "",'K3'!H6)</f>
-        <v>2.8634259259259262E-2</v>
+        <f>IF('K3'!A7="", "",'K3'!H7)</f>
+        <v>2.5752314814814815E-2</v>
       </c>
       <c r="C6" s="37">
-        <f>IF('K3'!A6="", "",'K3'!I6)</f>
-        <v>3</v>
+        <f>IF('K3'!A7="", "",'K3'!I7)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -10326,16 +10364,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K3'!A7="", "",'K3'!A7)</f>
-        <v>Melbybråten, Eivor</v>
+        <f>IF('K3'!A9="", "",'K3'!A9)</f>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K3'!A7="", "",'K3'!H7)</f>
-        <v>2.5752314814814815E-2</v>
+        <f>IF('K3'!A9="", "",'K3'!H9)</f>
+        <v>2.8344907407407412E-2</v>
       </c>
       <c r="C7" s="37">
-        <f>IF('K3'!A7="", "",'K3'!I7)</f>
-        <v>1</v>
+        <f>IF('K3'!A9="", "",'K3'!I9)</f>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -10350,16 +10388,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
-        <f>IF('K3'!A8="", "",'K3'!A8)</f>
-        <v>Olsen, Thea</v>
+        <f>IF('K3'!A6="", "",'K3'!A6)</f>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B8" s="36">
-        <f>IF('K3'!A8="", "",'K3'!H8)</f>
-        <v>3.1909722222222221E-2</v>
+        <f>IF('K3'!A6="", "",'K3'!H6)</f>
+        <v>2.8634259259259262E-2</v>
       </c>
       <c r="C8" s="37">
-        <f>IF('K3'!A8="", "",'K3'!I8)</f>
-        <v>4</v>
+        <f>IF('K3'!A6="", "",'K3'!I6)</f>
+        <v>3</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -10374,16 +10412,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
-        <f>IF('K3'!A9="", "",'K3'!A9)</f>
-        <v>Seierstad, Janne Ballangrud</v>
+        <f>IF('K3'!A8="", "",'K3'!A8)</f>
+        <v>Olsen, Thea</v>
       </c>
       <c r="B9" s="36">
-        <f>IF('K3'!A9="", "",'K3'!H9)</f>
-        <v>2.8344907407407412E-2</v>
+        <f>IF('K3'!A8="", "",'K3'!H8)</f>
+        <v>3.1909722222222221E-2</v>
       </c>
       <c r="C9" s="37">
-        <f>IF('K3'!A9="", "",'K3'!I9)</f>
-        <v>2</v>
+        <f>IF('K3'!A8="", "",'K3'!I8)</f>
+        <v>4</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -10396,7 +10434,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K3'!A10="", "",'K3'!A10)</f>
         <v>Vestengen, Maria</v>
@@ -10420,7 +10458,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K3'!A11="", "",'K3'!A11)</f>
         <v/>
@@ -10444,7 +10482,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K3'!A12="", "",'K3'!A12)</f>
         <v/>
@@ -10468,7 +10506,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K3'!A13="", "",'K3'!A13)</f>
         <v/>
@@ -10492,7 +10530,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K3'!A14="", "",'K3'!A14)</f>
         <v/>
@@ -10516,7 +10554,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K3'!A15="", "",'K3'!A15)</f>
         <v/>
@@ -10540,7 +10578,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K3'!A16="", "",'K3'!A16)</f>
         <v/>
@@ -10564,7 +10602,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K3'!A17="", "",'K3'!A17)</f>
         <v/>
@@ -10588,7 +10626,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K3'!A18="", "",'K3'!A18)</f>
         <v/>
@@ -10612,7 +10650,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K3'!A19="", "",'K3'!A19)</f>
         <v/>
@@ -10636,7 +10674,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K3'!A20="", "",'K3'!A20)</f>
         <v/>
@@ -10660,7 +10698,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K3'!A21="", "",'K3'!A21)</f>
         <v/>
@@ -10684,7 +10722,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K3'!A22="", "",'K3'!A22)</f>
         <v/>
@@ -10708,7 +10746,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K3'!A23="", "",'K3'!A23)</f>
         <v/>
@@ -10732,7 +10770,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K3'!A24="", "",'K3'!A24)</f>
         <v/>
@@ -10756,7 +10794,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K3'!A25="", "",'K3'!A25)</f>
         <v/>
@@ -10780,7 +10818,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K3'!A26="", "",'K3'!A26)</f>
         <v/>
@@ -10804,7 +10842,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K3'!A27="", "",'K3'!A27)</f>
         <v/>
@@ -10828,7 +10866,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K3'!A28="", "",'K3'!A28)</f>
         <v/>
@@ -10852,7 +10890,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K3'!A29="", "",'K3'!A29)</f>
         <v/>
@@ -10876,7 +10914,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K3'!A30="", "",'K3'!A30)</f>
         <v/>
@@ -10900,7 +10938,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K3'!A31="", "",'K3'!A31)</f>
         <v/>
@@ -10924,7 +10962,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K3'!A32="", "",'K3'!A32)</f>
         <v/>
@@ -10948,7 +10986,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K3'!A33="", "",'K3'!A33)</f>
         <v/>
@@ -10972,7 +11010,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K3'!A34="", "",'K3'!A34)</f>
         <v/>
@@ -10996,7 +11034,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K3'!A35="", "",'K3'!A35)</f>
         <v/>
@@ -11020,7 +11058,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K3'!A36="", "",'K3'!A36)</f>
         <v/>
@@ -11044,7 +11082,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K3'!A37="", "",'K3'!A37)</f>
         <v/>
@@ -11068,7 +11106,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K3'!A38="", "",'K3'!A38)</f>
         <v/>
@@ -11092,7 +11130,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K3'!A39="", "",'K3'!A39)</f>
         <v/>
@@ -11116,7 +11154,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K3'!A40="", "",'K3'!A40)</f>
         <v/>
@@ -11140,7 +11178,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K3'!A41="", "",'K3'!A41)</f>
         <v/>
@@ -11164,7 +11202,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K3'!A42="", "",'K3'!A42)</f>
         <v/>
@@ -11188,7 +11226,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K3'!A43="", "",'K3'!A43)</f>
         <v/>
@@ -11212,7 +11250,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K3'!A44="", "",'K3'!A44)</f>
         <v/>
@@ -11236,7 +11274,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K3'!A45="", "",'K3'!A45)</f>
         <v/>
@@ -11260,7 +11298,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K3'!A46="", "",'K3'!A46)</f>
         <v/>
@@ -11284,7 +11322,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K3'!A47="", "",'K3'!A47)</f>
         <v/>
@@ -11308,7 +11346,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K3'!A48="", "",'K3'!A48)</f>
         <v/>
@@ -11332,7 +11370,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K3'!A49="", "",'K3'!A49)</f>
         <v/>
@@ -11356,7 +11394,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K3'!A50="", "",'K3'!A50)</f>
         <v/>
@@ -11380,7 +11418,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K3'!A51="", "",'K3'!A51)</f>
         <v/>
@@ -11404,7 +11442,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K3'!A52="", "",'K3'!A52)</f>
         <v/>
@@ -11428,7 +11466,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K3'!A53="", "",'K3'!A53)</f>
         <v/>
@@ -11452,7 +11490,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K3'!A54="", "",'K3'!A54)</f>
         <v/>
@@ -11476,7 +11514,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K3'!A55="", "",'K3'!A55)</f>
         <v/>
@@ -11500,7 +11538,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K3'!A56="", "",'K3'!A56)</f>
         <v/>
@@ -11524,7 +11562,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K3'!A57="", "",'K3'!A57)</f>
         <v/>
@@ -11548,7 +11586,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K3'!A58="", "",'K3'!A58)</f>
         <v/>
@@ -11572,7 +11610,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K3'!A59="", "",'K3'!A59)</f>
         <v/>
@@ -11596,7 +11634,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K3'!A60="", "",'K3'!A60)</f>
         <v/>
@@ -11620,7 +11658,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K3'!A61="", "",'K3'!A61)</f>
         <v/>
@@ -11644,7 +11682,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K3'!A62="", "",'K3'!A62)</f>
         <v/>
@@ -11668,7 +11706,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K3'!A63="", "",'K3'!A63)</f>
         <v/>
@@ -11692,7 +11730,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K3'!A64="", "",'K3'!A64)</f>
         <v/>
@@ -11716,7 +11754,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K3'!A65="", "",'K3'!A65)</f>
         <v/>
@@ -11740,7 +11778,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K3'!A66="", "",'K3'!A66)</f>
         <v/>
@@ -11764,7 +11802,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K3'!A67="", "",'K3'!A67)</f>
         <v/>
@@ -11788,7 +11826,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K3'!A68="", "",'K3'!A68)</f>
         <v/>
@@ -11812,7 +11850,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K3'!A69="", "",'K3'!A69)</f>
         <v/>
@@ -11836,7 +11874,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K3'!A70="", "",'K3'!A70)</f>
         <v/>
@@ -11860,7 +11898,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K3'!A71="", "",'K3'!A71)</f>
         <v/>
@@ -11884,7 +11922,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K3'!A72="", "",'K3'!A72)</f>
         <v/>
@@ -11908,7 +11946,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K3'!A73="", "",'K3'!A73)</f>
         <v/>
@@ -11932,7 +11970,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K3'!A74="", "",'K3'!A74)</f>
         <v/>
@@ -11956,7 +11994,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K3'!A75="", "",'K3'!A75)</f>
         <v/>
@@ -11980,7 +12018,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K3'!A76="", "",'K3'!A76)</f>
         <v/>
@@ -12004,7 +12042,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K3'!A77="", "",'K3'!A77)</f>
         <v/>
@@ -12028,7 +12066,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K3'!A78="", "",'K3'!A78)</f>
         <v/>
@@ -12052,7 +12090,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K3'!A79="", "",'K3'!A79)</f>
         <v/>
@@ -12076,7 +12114,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K3'!A80="", "",'K3'!A80)</f>
         <v/>
@@ -12100,7 +12138,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K3'!A81="", "",'K3'!A81)</f>
         <v/>
@@ -12124,7 +12162,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K3'!A82="", "",'K3'!A82)</f>
         <v/>
@@ -12148,7 +12186,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K3'!A83="", "",'K3'!A83)</f>
         <v/>
@@ -12172,7 +12210,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K3'!A84="", "",'K3'!A84)</f>
         <v/>
@@ -12196,7 +12234,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K3'!A85="", "",'K3'!A85)</f>
         <v/>
@@ -12220,7 +12258,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K3'!A86="", "",'K3'!A86)</f>
         <v/>
@@ -12244,7 +12282,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K3'!A87="", "",'K3'!A87)</f>
         <v/>
@@ -12268,7 +12306,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K3'!A88="", "",'K3'!A88)</f>
         <v/>
@@ -12292,7 +12330,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K3'!A89="", "",'K3'!A89)</f>
         <v/>
@@ -12316,7 +12354,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K3'!A90="", "",'K3'!A90)</f>
         <v/>
@@ -12340,7 +12378,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K3'!A91="", "",'K3'!A91)</f>
         <v/>
@@ -12364,7 +12402,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K3'!A92="", "",'K3'!A92)</f>
         <v/>
@@ -12388,7 +12426,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K3'!A93="", "",'K3'!A93)</f>
         <v/>
@@ -12412,7 +12450,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K3'!A94="", "",'K3'!A94)</f>
         <v/>
@@ -12436,7 +12474,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K3'!A95="", "",'K3'!A95)</f>
         <v/>
@@ -12460,7 +12498,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K3'!A96="", "",'K3'!A96)</f>
         <v/>
@@ -12484,7 +12522,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K3'!A97="", "",'K3'!A97)</f>
         <v/>
@@ -12508,7 +12546,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K3'!A98="", "",'K3'!A98)</f>
         <v/>
@@ -12532,7 +12570,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K3'!A99="", "",'K3'!A99)</f>
         <v/>
@@ -12556,7 +12594,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K3'!A100="", "",'K3'!A100)</f>
         <v/>
@@ -12580,7 +12618,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K3'!A101="", "",'K3'!A101)</f>
         <v/>
@@ -12604,7 +12642,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K3'!A102="", "",'K3'!A102)</f>
         <v/>
@@ -12619,7 +12657,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K3'!A103="", "",'K3'!A103)</f>
         <v/>
@@ -12634,10 +12672,23 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A6:C9">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -33785,17 +33836,19 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33861,16 +33914,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
-        <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
-        <v>Flugstad, Andrine Fuglerud</v>
+        <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
+        <v>Melbybråten, Eivor</v>
       </c>
       <c r="B4" s="41">
-        <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
-        <v>220</v>
+        <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
+        <v>300</v>
       </c>
       <c r="C4" s="37">
-        <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
-        <v>2</v>
+        <f>IF(D1D2D3!A4="", "",D1D2D3!Q4)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -33885,16 +33938,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
-        <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
-        <v>Melbybråten, Eivor</v>
+        <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
+        <v>Flugstad, Andrine Fuglerud</v>
       </c>
       <c r="B5" s="41">
-        <f>IF(D1D2D3!A4="", "",D1D2D3!P4)</f>
-        <v>300</v>
+        <f>IF(D1D2D3!A5="", "",D1D2D3!P5)</f>
+        <v>220</v>
       </c>
       <c r="C5" s="37">
-        <f>IF(D1D2D3!A4="", "",D1D2D3!Q4)</f>
-        <v>1</v>
+        <f>IF(D1D2D3!A5="", "",D1D2D3!Q5)</f>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -33907,7 +33960,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
         <v>Tronrud, Sara Agnethe Granvang</v>
@@ -33931,7 +33984,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
         <v>Kjeldsberg, Iselin Stangstuen</v>
@@ -33955,7 +34008,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
         <v/>
@@ -33979,7 +34032,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
         <v/>
@@ -34003,7 +34056,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
         <v/>
@@ -34027,7 +34080,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
         <v/>
@@ -34051,7 +34104,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
         <v/>
@@ -34075,7 +34128,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
         <v/>
@@ -34099,7 +34152,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
         <v/>
@@ -34123,7 +34176,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
         <v/>
@@ -34147,7 +34200,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
         <v/>
@@ -34171,7 +34224,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
         <v/>
@@ -34195,7 +34248,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
         <v/>
@@ -34219,7 +34272,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
         <v/>
@@ -34243,7 +34296,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF(D1D2D3!A20="", "",D1D2D3!A20)</f>
         <v/>
@@ -34267,7 +34320,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF(D1D2D3!A21="", "",D1D2D3!A21)</f>
         <v/>
@@ -34291,7 +34344,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF(D1D2D3!A22="", "",D1D2D3!A22)</f>
         <v/>
@@ -34315,7 +34368,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF(D1D2D3!A23="", "",D1D2D3!A23)</f>
         <v/>
@@ -34339,7 +34392,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF(D1D2D3!A24="", "",D1D2D3!A24)</f>
         <v/>
@@ -34363,7 +34416,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF(D1D2D3!A25="", "",D1D2D3!A25)</f>
         <v/>
@@ -34387,7 +34440,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF(D1D2D3!A26="", "",D1D2D3!A26)</f>
         <v/>
@@ -34411,7 +34464,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF(D1D2D3!A27="", "",D1D2D3!A27)</f>
         <v/>
@@ -34435,7 +34488,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF(D1D2D3!A28="", "",D1D2D3!A28)</f>
         <v/>
@@ -34459,7 +34512,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF(D1D2D3!A29="", "",D1D2D3!A29)</f>
         <v/>
@@ -34483,7 +34536,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF(D1D2D3!A30="", "",D1D2D3!A30)</f>
         <v/>
@@ -34507,7 +34560,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF(D1D2D3!A31="", "",D1D2D3!A31)</f>
         <v/>
@@ -34531,7 +34584,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF(D1D2D3!A32="", "",D1D2D3!A32)</f>
         <v/>
@@ -34555,7 +34608,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF(D1D2D3!A33="", "",D1D2D3!A33)</f>
         <v/>
@@ -34579,7 +34632,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF(D1D2D3!A34="", "",D1D2D3!A34)</f>
         <v/>
@@ -34603,7 +34656,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF(D1D2D3!A35="", "",D1D2D3!A35)</f>
         <v/>
@@ -34627,7 +34680,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF(D1D2D3!A36="", "",D1D2D3!A36)</f>
         <v/>
@@ -34651,7 +34704,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF(D1D2D3!A37="", "",D1D2D3!A37)</f>
         <v/>
@@ -34675,7 +34728,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF(D1D2D3!A38="", "",D1D2D3!A38)</f>
         <v/>
@@ -34699,7 +34752,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF(D1D2D3!A39="", "",D1D2D3!A39)</f>
         <v/>
@@ -34723,7 +34776,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF(D1D2D3!A40="", "",D1D2D3!A40)</f>
         <v/>
@@ -34747,7 +34800,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF(D1D2D3!A41="", "",D1D2D3!A41)</f>
         <v/>
@@ -34771,7 +34824,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF(D1D2D3!A42="", "",D1D2D3!A42)</f>
         <v/>
@@ -34795,7 +34848,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF(D1D2D3!A43="", "",D1D2D3!A43)</f>
         <v/>
@@ -34819,7 +34872,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF(D1D2D3!A44="", "",D1D2D3!A44)</f>
         <v/>
@@ -34843,7 +34896,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF(D1D2D3!A45="", "",D1D2D3!A45)</f>
         <v/>
@@ -34867,7 +34920,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF(D1D2D3!A46="", "",D1D2D3!A46)</f>
         <v/>
@@ -34891,7 +34944,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF(D1D2D3!A47="", "",D1D2D3!A47)</f>
         <v/>
@@ -34915,7 +34968,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF(D1D2D3!A48="", "",D1D2D3!A48)</f>
         <v/>
@@ -34939,7 +34992,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF(D1D2D3!A49="", "",D1D2D3!A49)</f>
         <v/>
@@ -34963,7 +35016,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF(D1D2D3!A50="", "",D1D2D3!A50)</f>
         <v/>
@@ -34987,7 +35040,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF(D1D2D3!A51="", "",D1D2D3!A51)</f>
         <v/>
@@ -35011,7 +35064,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF(D1D2D3!A52="", "",D1D2D3!A52)</f>
         <v/>
@@ -35035,7 +35088,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF(D1D2D3!A53="", "",D1D2D3!A53)</f>
         <v/>
@@ -35059,7 +35112,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF(D1D2D3!A54="", "",D1D2D3!A54)</f>
         <v/>
@@ -35083,7 +35136,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF(D1D2D3!A55="", "",D1D2D3!A55)</f>
         <v/>
@@ -35107,7 +35160,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF(D1D2D3!A56="", "",D1D2D3!A56)</f>
         <v/>
@@ -35131,7 +35184,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF(D1D2D3!A57="", "",D1D2D3!A57)</f>
         <v/>
@@ -35155,7 +35208,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF(D1D2D3!A58="", "",D1D2D3!A58)</f>
         <v/>
@@ -35179,7 +35232,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF(D1D2D3!A59="", "",D1D2D3!A59)</f>
         <v/>
@@ -35203,7 +35256,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF(D1D2D3!A60="", "",D1D2D3!A60)</f>
         <v/>
@@ -35227,7 +35280,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF(D1D2D3!A61="", "",D1D2D3!A61)</f>
         <v/>
@@ -35251,7 +35304,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF(D1D2D3!A62="", "",D1D2D3!A62)</f>
         <v/>
@@ -35275,7 +35328,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF(D1D2D3!A63="", "",D1D2D3!A63)</f>
         <v/>
@@ -35299,7 +35352,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF(D1D2D3!A64="", "",D1D2D3!A64)</f>
         <v/>
@@ -35323,7 +35376,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF(D1D2D3!A65="", "",D1D2D3!A65)</f>
         <v/>
@@ -35347,7 +35400,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF(D1D2D3!A66="", "",D1D2D3!A66)</f>
         <v/>
@@ -35371,7 +35424,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF(D1D2D3!A67="", "",D1D2D3!A67)</f>
         <v/>
@@ -35395,7 +35448,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF(D1D2D3!A68="", "",D1D2D3!A68)</f>
         <v/>
@@ -35419,7 +35472,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF(D1D2D3!A69="", "",D1D2D3!A69)</f>
         <v/>
@@ -35443,7 +35496,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF(D1D2D3!A70="", "",D1D2D3!A70)</f>
         <v/>
@@ -35467,7 +35520,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF(D1D2D3!A71="", "",D1D2D3!A71)</f>
         <v/>
@@ -35491,7 +35544,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF(D1D2D3!A72="", "",D1D2D3!A72)</f>
         <v/>
@@ -35515,7 +35568,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF(D1D2D3!A73="", "",D1D2D3!A73)</f>
         <v/>
@@ -35539,7 +35592,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF(D1D2D3!A74="", "",D1D2D3!A74)</f>
         <v/>
@@ -35563,7 +35616,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF(D1D2D3!A75="", "",D1D2D3!A75)</f>
         <v/>
@@ -35587,7 +35640,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF(D1D2D3!A76="", "",D1D2D3!A76)</f>
         <v/>
@@ -35611,7 +35664,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF(D1D2D3!A77="", "",D1D2D3!A77)</f>
         <v/>
@@ -35635,7 +35688,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF(D1D2D3!A78="", "",D1D2D3!A78)</f>
         <v/>
@@ -35659,7 +35712,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF(D1D2D3!A79="", "",D1D2D3!A79)</f>
         <v/>
@@ -35683,7 +35736,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF(D1D2D3!A80="", "",D1D2D3!A80)</f>
         <v/>
@@ -35707,7 +35760,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF(D1D2D3!A81="", "",D1D2D3!A81)</f>
         <v/>
@@ -35731,7 +35784,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF(D1D2D3!A82="", "",D1D2D3!A82)</f>
         <v/>
@@ -35755,7 +35808,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF(D1D2D3!A83="", "",D1D2D3!A83)</f>
         <v/>
@@ -35779,7 +35832,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF(D1D2D3!A84="", "",D1D2D3!A84)</f>
         <v/>
@@ -35803,7 +35856,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF(D1D2D3!A85="", "",D1D2D3!A85)</f>
         <v/>
@@ -35827,7 +35880,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF(D1D2D3!A86="", "",D1D2D3!A86)</f>
         <v/>
@@ -35851,7 +35904,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF(D1D2D3!A87="", "",D1D2D3!A87)</f>
         <v/>
@@ -35875,7 +35928,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF(D1D2D3!A88="", "",D1D2D3!A88)</f>
         <v/>
@@ -35899,7 +35952,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF(D1D2D3!A89="", "",D1D2D3!A89)</f>
         <v/>
@@ -35923,7 +35976,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF(D1D2D3!A90="", "",D1D2D3!A90)</f>
         <v/>
@@ -35947,7 +36000,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF(D1D2D3!A91="", "",D1D2D3!A91)</f>
         <v/>
@@ -35971,7 +36024,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF(D1D2D3!A92="", "",D1D2D3!A92)</f>
         <v/>
@@ -35995,7 +36048,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF(D1D2D3!A93="", "",D1D2D3!A93)</f>
         <v/>
@@ -36019,7 +36072,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF(D1D2D3!A94="", "",D1D2D3!A94)</f>
         <v/>
@@ -36043,7 +36096,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF(D1D2D3!A95="", "",D1D2D3!A95)</f>
         <v/>
@@ -36067,7 +36120,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF(D1D2D3!A96="", "",D1D2D3!A96)</f>
         <v/>
@@ -36091,7 +36144,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF(D1D2D3!A97="", "",D1D2D3!A97)</f>
         <v/>
@@ -36115,7 +36168,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF(D1D2D3!A98="", "",D1D2D3!A98)</f>
         <v/>
@@ -36139,7 +36192,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF(D1D2D3!A99="", "",D1D2D3!A99)</f>
         <v/>
@@ -36163,7 +36216,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF(D1D2D3!A100="", "",D1D2D3!A100)</f>
         <v/>
@@ -36187,7 +36240,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF(D1D2D3!A101="", "",D1D2D3!A101)</f>
         <v/>
@@ -36211,7 +36264,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF(D1D2D3!A102="", "",D1D2D3!A102)</f>
         <v/>
@@ -36226,7 +36279,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF(D1D2D3!A103="", "",D1D2D3!A103)</f>
         <v/>
@@ -36240,7 +36293,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
         <v>Berntsen, Mia Emilie</v>
@@ -36256,19 +36309,19 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
-        <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v>Christensen, Vilde Marie Thon</v>
+        <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
+        <v>Seierstad, Janne Ballangrud</v>
       </c>
       <c r="B105" s="41">
-        <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v>94</v>
+        <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
+        <v>200</v>
       </c>
       <c r="C105" s="37">
-        <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
         <v>Olsen, Malin</v>
@@ -36284,19 +36337,19 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
-        <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
-        <v>Jøranli, Lene</v>
+        <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B107" s="41">
-        <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
-        <v>114</v>
+        <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
+        <v>126</v>
       </c>
       <c r="C107" s="37">
-        <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A110="", "",D1D2D3!Q110)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
         <v>Nyhagen, Hedda</v>
@@ -36310,7 +36363,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
         <v>Ringen, Carene Moen</v>
@@ -36326,19 +36379,19 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
-        <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
-        <v>Silber, Jessica Birgit</v>
+        <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B110" s="41">
-        <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
-        <v>126</v>
+        <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
+        <v>117</v>
       </c>
       <c r="C110" s="37">
-        <f>IF(D1D2D3!A110="", "",D1D2D3!Q110)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
         <v>Ulsrud, Selma Byfuglien</v>
@@ -36352,7 +36405,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
         <v/>
@@ -36366,7 +36419,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
         <v/>
@@ -36380,7 +36433,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="str">
         <f>IF(D1D2D3!A114="", "",D1D2D3!A114)</f>
         <v/>
@@ -36394,7 +36447,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="str">
         <f>IF(D1D2D3!A115="", "",D1D2D3!A115)</f>
         <v/>
@@ -36408,7 +36461,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="str">
         <f>IF(D1D2D3!A116="", "",D1D2D3!A116)</f>
         <v/>
@@ -36422,7 +36475,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="str">
         <f>IF(D1D2D3!A117="", "",D1D2D3!A117)</f>
         <v/>
@@ -36436,7 +36489,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="str">
         <f>IF(D1D2D3!A118="", "",D1D2D3!A118)</f>
         <v/>
@@ -36450,7 +36503,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="str">
         <f>IF(D1D2D3!A119="", "",D1D2D3!A119)</f>
         <v/>
@@ -36464,7 +36517,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="str">
         <f>IF(D1D2D3!A120="", "",D1D2D3!A120)</f>
         <v/>
@@ -36478,7 +36531,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="str">
         <f>IF(D1D2D3!A121="", "",D1D2D3!A121)</f>
         <v/>
@@ -36492,7 +36545,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="str">
         <f>IF(D1D2D3!A122="", "",D1D2D3!A122)</f>
         <v/>
@@ -36506,7 +36559,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="str">
         <f>IF(D1D2D3!A123="", "",D1D2D3!A123)</f>
         <v/>
@@ -36520,7 +36573,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="str">
         <f>IF(D1D2D3!A124="", "",D1D2D3!A124)</f>
         <v/>
@@ -36534,7 +36587,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="str">
         <f>IF(D1D2D3!A125="", "",D1D2D3!A125)</f>
         <v/>
@@ -36548,7 +36601,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="str">
         <f>IF(D1D2D3!A126="", "",D1D2D3!A126)</f>
         <v/>
@@ -36562,7 +36615,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="str">
         <f>IF(D1D2D3!A127="", "",D1D2D3!A127)</f>
         <v/>
@@ -36576,7 +36629,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="str">
         <f>IF(D1D2D3!A128="", "",D1D2D3!A128)</f>
         <v/>
@@ -36590,7 +36643,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="str">
         <f>IF(D1D2D3!A129="", "",D1D2D3!A129)</f>
         <v/>
@@ -36604,7 +36657,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="str">
         <f>IF(D1D2D3!A130="", "",D1D2D3!A130)</f>
         <v/>
@@ -36618,7 +36671,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="str">
         <f>IF(D1D2D3!A131="", "",D1D2D3!A131)</f>
         <v/>
@@ -36632,7 +36685,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="str">
         <f>IF(D1D2D3!A132="", "",D1D2D3!A132)</f>
         <v/>
@@ -36646,7 +36699,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="str">
         <f>IF(D1D2D3!A133="", "",D1D2D3!A133)</f>
         <v/>
@@ -36660,7 +36713,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="str">
         <f>IF(D1D2D3!A134="", "",D1D2D3!A134)</f>
         <v/>
@@ -36674,7 +36727,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="str">
         <f>IF(D1D2D3!A135="", "",D1D2D3!A135)</f>
         <v/>
@@ -36688,7 +36741,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="str">
         <f>IF(D1D2D3!A136="", "",D1D2D3!A136)</f>
         <v/>
@@ -36702,7 +36755,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="str">
         <f>IF(D1D2D3!A137="", "",D1D2D3!A137)</f>
         <v/>
@@ -36716,7 +36769,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="str">
         <f>IF(D1D2D3!A138="", "",D1D2D3!A138)</f>
         <v/>
@@ -36730,7 +36783,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="str">
         <f>IF(D1D2D3!A139="", "",D1D2D3!A139)</f>
         <v/>
@@ -36744,7 +36797,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="str">
         <f>IF(D1D2D3!A140="", "",D1D2D3!A140)</f>
         <v/>
@@ -36758,7 +36811,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="str">
         <f>IF(D1D2D3!A141="", "",D1D2D3!A141)</f>
         <v/>
@@ -36772,7 +36825,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="str">
         <f>IF(D1D2D3!A142="", "",D1D2D3!A142)</f>
         <v/>
@@ -36786,7 +36839,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="str">
         <f>IF(D1D2D3!A143="", "",D1D2D3!A143)</f>
         <v/>
@@ -36800,7 +36853,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="str">
         <f>IF(D1D2D3!A144="", "",D1D2D3!A144)</f>
         <v/>
@@ -36814,7 +36867,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="str">
         <f>IF(D1D2D3!A145="", "",D1D2D3!A145)</f>
         <v/>
@@ -36828,7 +36881,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="str">
         <f>IF(D1D2D3!A146="", "",D1D2D3!A146)</f>
         <v/>
@@ -36842,7 +36895,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="str">
         <f>IF(D1D2D3!A147="", "",D1D2D3!A147)</f>
         <v/>
@@ -36856,7 +36909,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="str">
         <f>IF(D1D2D3!A148="", "",D1D2D3!A148)</f>
         <v/>
@@ -36870,7 +36923,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="str">
         <f>IF(D1D2D3!A149="", "",D1D2D3!A149)</f>
         <v/>
@@ -36884,7 +36937,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="str">
         <f>IF(D1D2D3!A150="", "",D1D2D3!A150)</f>
         <v/>
@@ -36898,7 +36951,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="str">
         <f>IF(D1D2D3!A151="", "",D1D2D3!A151)</f>
         <v/>
@@ -36912,7 +36965,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="str">
         <f>IF(D1D2D3!A152="", "",D1D2D3!A152)</f>
         <v/>
@@ -36926,7 +36979,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="str">
         <f>IF(D1D2D3!A153="", "",D1D2D3!A153)</f>
         <v/>
@@ -36940,7 +36993,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="str">
         <f>IF(D1D2D3!A154="", "",D1D2D3!A154)</f>
         <v/>
@@ -36954,7 +37007,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="str">
         <f>IF(D1D2D3!A155="", "",D1D2D3!A155)</f>
         <v/>
@@ -36968,7 +37021,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="str">
         <f>IF(D1D2D3!A156="", "",D1D2D3!A156)</f>
         <v/>
@@ -36982,7 +37035,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="str">
         <f>IF(D1D2D3!A157="", "",D1D2D3!A157)</f>
         <v/>
@@ -36996,7 +37049,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="str">
         <f>IF(D1D2D3!A158="", "",D1D2D3!A158)</f>
         <v/>
@@ -37010,7 +37063,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="str">
         <f>IF(D1D2D3!A159="", "",D1D2D3!A159)</f>
         <v/>
@@ -37024,7 +37077,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="str">
         <f>IF(D1D2D3!A160="", "",D1D2D3!A160)</f>
         <v/>
@@ -37038,7 +37091,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="str">
         <f>IF(D1D2D3!A161="", "",D1D2D3!A161)</f>
         <v/>
@@ -37052,7 +37105,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="str">
         <f>IF(D1D2D3!A162="", "",D1D2D3!A162)</f>
         <v/>
@@ -37066,7 +37119,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="str">
         <f>IF(D1D2D3!A163="", "",D1D2D3!A163)</f>
         <v/>
@@ -37080,7 +37133,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="str">
         <f>IF(D1D2D3!A164="", "",D1D2D3!A164)</f>
         <v/>
@@ -37094,7 +37147,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="str">
         <f>IF(D1D2D3!A165="", "",D1D2D3!A165)</f>
         <v/>
@@ -37108,7 +37161,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="str">
         <f>IF(D1D2D3!A166="", "",D1D2D3!A166)</f>
         <v/>
@@ -37122,7 +37175,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="str">
         <f>IF(D1D2D3!A167="", "",D1D2D3!A167)</f>
         <v/>
@@ -37136,7 +37189,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="str">
         <f>IF(D1D2D3!A168="", "",D1D2D3!A168)</f>
         <v/>
@@ -37150,7 +37203,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="str">
         <f>IF(D1D2D3!A169="", "",D1D2D3!A169)</f>
         <v/>
@@ -37164,7 +37217,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="str">
         <f>IF(D1D2D3!A170="", "",D1D2D3!A170)</f>
         <v/>
@@ -37178,7 +37231,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="str">
         <f>IF(D1D2D3!A171="", "",D1D2D3!A171)</f>
         <v/>
@@ -37192,7 +37245,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="str">
         <f>IF(D1D2D3!A172="", "",D1D2D3!A172)</f>
         <v/>
@@ -37206,7 +37259,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="str">
         <f>IF(D1D2D3!A173="", "",D1D2D3!A173)</f>
         <v/>
@@ -37220,7 +37273,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="str">
         <f>IF(D1D2D3!A174="", "",D1D2D3!A174)</f>
         <v/>
@@ -37234,7 +37287,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="str">
         <f>IF(D1D2D3!A175="", "",D1D2D3!A175)</f>
         <v/>
@@ -37248,7 +37301,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="str">
         <f>IF(D1D2D3!A176="", "",D1D2D3!A176)</f>
         <v/>
@@ -37262,7 +37315,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="str">
         <f>IF(D1D2D3!A177="", "",D1D2D3!A177)</f>
         <v/>
@@ -37276,7 +37329,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="str">
         <f>IF(D1D2D3!A178="", "",D1D2D3!A178)</f>
         <v/>
@@ -37290,7 +37343,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="str">
         <f>IF(D1D2D3!A179="", "",D1D2D3!A179)</f>
         <v/>
@@ -37304,7 +37357,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="str">
         <f>IF(D1D2D3!A180="", "",D1D2D3!A180)</f>
         <v/>
@@ -37318,7 +37371,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="str">
         <f>IF(D1D2D3!A181="", "",D1D2D3!A181)</f>
         <v/>
@@ -37332,7 +37385,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="str">
         <f>IF(D1D2D3!A182="", "",D1D2D3!A182)</f>
         <v/>
@@ -37346,7 +37399,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="str">
         <f>IF(D1D2D3!A183="", "",D1D2D3!A183)</f>
         <v/>
@@ -37360,7 +37413,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="str">
         <f>IF(D1D2D3!A184="", "",D1D2D3!A184)</f>
         <v/>
@@ -37374,7 +37427,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39" t="str">
         <f>IF(D1D2D3!A185="", "",D1D2D3!A185)</f>
         <v/>
@@ -37388,7 +37441,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39" t="str">
         <f>IF(D1D2D3!A186="", "",D1D2D3!A186)</f>
         <v/>
@@ -37402,7 +37455,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="str">
         <f>IF(D1D2D3!A187="", "",D1D2D3!A187)</f>
         <v/>
@@ -37416,7 +37469,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39" t="str">
         <f>IF(D1D2D3!A188="", "",D1D2D3!A188)</f>
         <v/>
@@ -37430,7 +37483,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="str">
         <f>IF(D1D2D3!A189="", "",D1D2D3!A189)</f>
         <v/>
@@ -37444,7 +37497,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="str">
         <f>IF(D1D2D3!A190="", "",D1D2D3!A190)</f>
         <v/>
@@ -37458,7 +37511,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39" t="str">
         <f>IF(D1D2D3!A191="", "",D1D2D3!A191)</f>
         <v/>
@@ -37472,7 +37525,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="str">
         <f>IF(D1D2D3!A192="", "",D1D2D3!A192)</f>
         <v/>
@@ -37486,7 +37539,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39" t="str">
         <f>IF(D1D2D3!A193="", "",D1D2D3!A193)</f>
         <v/>
@@ -37500,7 +37553,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="str">
         <f>IF(D1D2D3!A194="", "",D1D2D3!A194)</f>
         <v/>
@@ -37514,7 +37567,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39" t="str">
         <f>IF(D1D2D3!A195="", "",D1D2D3!A195)</f>
         <v/>
@@ -37528,7 +37581,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="str">
         <f>IF(D1D2D3!A196="", "",D1D2D3!A196)</f>
         <v/>
@@ -37542,7 +37595,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39" t="str">
         <f>IF(D1D2D3!A197="", "",D1D2D3!A197)</f>
         <v/>
@@ -37556,7 +37609,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="str">
         <f>IF(D1D2D3!A198="", "",D1D2D3!A198)</f>
         <v/>
@@ -37570,7 +37623,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39" t="str">
         <f>IF(D1D2D3!A199="", "",D1D2D3!A199)</f>
         <v/>
@@ -37584,7 +37637,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="str">
         <f>IF(D1D2D3!A200="", "",D1D2D3!A200)</f>
         <v/>
@@ -37598,7 +37651,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39" t="str">
         <f>IF(D1D2D3!A201="", "",D1D2D3!A201)</f>
         <v/>
@@ -37612,7 +37665,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39" t="str">
         <f>IF(D1D2D3!A202="", "",D1D2D3!A202)</f>
         <v/>
@@ -37626,7 +37679,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39" t="str">
         <f>IF(D1D2D3!A203="", "",D1D2D3!A203)</f>
         <v/>
@@ -37640,7 +37693,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
         <v/>
@@ -37654,7 +37707,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
         <v>Dokken, Anne Birgit</v>
@@ -37668,7 +37721,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
         <v>Dragerengen, Ingrid</v>
@@ -37684,33 +37737,33 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
+        <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
+        <v>Jøranli, Lene</v>
+      </c>
+      <c r="B207" s="41">
+        <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
+        <v>114</v>
+      </c>
+      <c r="C207" s="37">
+        <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v>Olsen, Thea</v>
       </c>
-      <c r="B207" s="41">
+      <c r="B208" s="41">
         <f>IF(D1D2D3!A208="", "",D1D2D3!P208)</f>
         <v>108</v>
       </c>
-      <c r="C207" s="37">
+      <c r="C208" s="37">
         <f>IF(D1D2D3!A208="", "",D1D2D3!Q208)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="39" t="str">
-        <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
-        <v>Seierstad, Janne Ballangrud</v>
-      </c>
-      <c r="B208" s="41">
-        <f>IF(D1D2D3!A209="", "",D1D2D3!P209)</f>
-        <v>200</v>
-      </c>
-      <c r="C208" s="37">
-        <f>IF(D1D2D3!A209="", "",D1D2D3!Q209)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
         <v>Vestengen, Maria</v>
@@ -37724,7 +37777,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
         <v/>
@@ -37738,7 +37791,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
         <v/>
@@ -37752,7 +37805,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
         <v/>
@@ -37766,7 +37819,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39" t="str">
         <f>IF(D1D2D3!A214="", "",D1D2D3!A214)</f>
         <v/>
@@ -37780,7 +37833,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39" t="str">
         <f>IF(D1D2D3!A215="", "",D1D2D3!A215)</f>
         <v/>
@@ -37794,7 +37847,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39" t="str">
         <f>IF(D1D2D3!A216="", "",D1D2D3!A216)</f>
         <v/>
@@ -37808,7 +37861,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="str">
         <f>IF(D1D2D3!A217="", "",D1D2D3!A217)</f>
         <v/>
@@ -37822,7 +37875,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39" t="str">
         <f>IF(D1D2D3!A218="", "",D1D2D3!A218)</f>
         <v/>
@@ -37836,7 +37889,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39" t="str">
         <f>IF(D1D2D3!A219="", "",D1D2D3!A219)</f>
         <v/>
@@ -37850,7 +37903,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39" t="str">
         <f>IF(D1D2D3!A220="", "",D1D2D3!A220)</f>
         <v/>
@@ -37864,7 +37917,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39" t="str">
         <f>IF(D1D2D3!A221="", "",D1D2D3!A221)</f>
         <v/>
@@ -37878,7 +37931,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="str">
         <f>IF(D1D2D3!A222="", "",D1D2D3!A222)</f>
         <v/>
@@ -37892,7 +37945,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="str">
         <f>IF(D1D2D3!A223="", "",D1D2D3!A223)</f>
         <v/>
@@ -37906,7 +37959,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="str">
         <f>IF(D1D2D3!A224="", "",D1D2D3!A224)</f>
         <v/>
@@ -37920,7 +37973,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="str">
         <f>IF(D1D2D3!A225="", "",D1D2D3!A225)</f>
         <v/>
@@ -37934,7 +37987,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39" t="str">
         <f>IF(D1D2D3!A226="", "",D1D2D3!A226)</f>
         <v/>
@@ -37948,7 +38001,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39" t="str">
         <f>IF(D1D2D3!A227="", "",D1D2D3!A227)</f>
         <v/>
@@ -37962,7 +38015,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39" t="str">
         <f>IF(D1D2D3!A228="", "",D1D2D3!A228)</f>
         <v/>
@@ -37976,7 +38029,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39" t="str">
         <f>IF(D1D2D3!A229="", "",D1D2D3!A229)</f>
         <v/>
@@ -37990,7 +38043,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39" t="str">
         <f>IF(D1D2D3!A230="", "",D1D2D3!A230)</f>
         <v/>
@@ -38004,7 +38057,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39" t="str">
         <f>IF(D1D2D3!A231="", "",D1D2D3!A231)</f>
         <v/>
@@ -38018,7 +38071,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39" t="str">
         <f>IF(D1D2D3!A232="", "",D1D2D3!A232)</f>
         <v/>
@@ -38032,7 +38085,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39" t="str">
         <f>IF(D1D2D3!A233="", "",D1D2D3!A233)</f>
         <v/>
@@ -38046,7 +38099,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39" t="str">
         <f>IF(D1D2D3!A234="", "",D1D2D3!A234)</f>
         <v/>
@@ -38060,7 +38113,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39" t="str">
         <f>IF(D1D2D3!A235="", "",D1D2D3!A235)</f>
         <v/>
@@ -38074,7 +38127,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39" t="str">
         <f>IF(D1D2D3!A236="", "",D1D2D3!A236)</f>
         <v/>
@@ -38088,7 +38141,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39" t="str">
         <f>IF(D1D2D3!A237="", "",D1D2D3!A237)</f>
         <v/>
@@ -38102,7 +38155,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39" t="str">
         <f>IF(D1D2D3!A238="", "",D1D2D3!A238)</f>
         <v/>
@@ -38116,7 +38169,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39" t="str">
         <f>IF(D1D2D3!A239="", "",D1D2D3!A239)</f>
         <v/>
@@ -38130,7 +38183,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39" t="str">
         <f>IF(D1D2D3!A240="", "",D1D2D3!A240)</f>
         <v/>
@@ -38144,7 +38197,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39" t="str">
         <f>IF(D1D2D3!A241="", "",D1D2D3!A241)</f>
         <v/>
@@ -38158,7 +38211,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39" t="str">
         <f>IF(D1D2D3!A242="", "",D1D2D3!A242)</f>
         <v/>
@@ -38172,7 +38225,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39" t="str">
         <f>IF(D1D2D3!A243="", "",D1D2D3!A243)</f>
         <v/>
@@ -38186,7 +38239,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39" t="str">
         <f>IF(D1D2D3!A244="", "",D1D2D3!A244)</f>
         <v/>
@@ -38200,7 +38253,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39" t="str">
         <f>IF(D1D2D3!A245="", "",D1D2D3!A245)</f>
         <v/>
@@ -38214,7 +38267,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39" t="str">
         <f>IF(D1D2D3!A246="", "",D1D2D3!A246)</f>
         <v/>
@@ -38228,7 +38281,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="str">
         <f>IF(D1D2D3!A247="", "",D1D2D3!A247)</f>
         <v/>
@@ -38242,7 +38295,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="str">
         <f>IF(D1D2D3!A248="", "",D1D2D3!A248)</f>
         <v/>
@@ -38256,7 +38309,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="str">
         <f>IF(D1D2D3!A249="", "",D1D2D3!A249)</f>
         <v/>
@@ -38270,7 +38323,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="str">
         <f>IF(D1D2D3!A250="", "",D1D2D3!A250)</f>
         <v/>
@@ -38284,7 +38337,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="str">
         <f>IF(D1D2D3!A251="", "",D1D2D3!A251)</f>
         <v/>
@@ -38298,7 +38351,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="str">
         <f>IF(D1D2D3!A252="", "",D1D2D3!A252)</f>
         <v/>
@@ -38312,7 +38365,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="str">
         <f>IF(D1D2D3!A253="", "",D1D2D3!A253)</f>
         <v/>
@@ -38326,7 +38379,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="str">
         <f>IF(D1D2D3!A254="", "",D1D2D3!A254)</f>
         <v/>
@@ -38340,7 +38393,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="str">
         <f>IF(D1D2D3!A255="", "",D1D2D3!A255)</f>
         <v/>
@@ -38354,7 +38407,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39" t="str">
         <f>IF(D1D2D3!A256="", "",D1D2D3!A256)</f>
         <v/>
@@ -38368,7 +38421,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="str">
         <f>IF(D1D2D3!A257="", "",D1D2D3!A257)</f>
         <v/>
@@ -38382,7 +38435,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="str">
         <f>IF(D1D2D3!A258="", "",D1D2D3!A258)</f>
         <v/>
@@ -38396,7 +38449,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="str">
         <f>IF(D1D2D3!A259="", "",D1D2D3!A259)</f>
         <v/>
@@ -38410,7 +38463,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="str">
         <f>IF(D1D2D3!A260="", "",D1D2D3!A260)</f>
         <v/>
@@ -38424,7 +38477,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="str">
         <f>IF(D1D2D3!A261="", "",D1D2D3!A261)</f>
         <v/>
@@ -38438,7 +38491,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="str">
         <f>IF(D1D2D3!A262="", "",D1D2D3!A262)</f>
         <v/>
@@ -38452,7 +38505,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="str">
         <f>IF(D1D2D3!A263="", "",D1D2D3!A263)</f>
         <v/>
@@ -38466,7 +38519,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="str">
         <f>IF(D1D2D3!A264="", "",D1D2D3!A264)</f>
         <v/>
@@ -38480,7 +38533,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="str">
         <f>IF(D1D2D3!A265="", "",D1D2D3!A265)</f>
         <v/>
@@ -38494,7 +38547,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="str">
         <f>IF(D1D2D3!A266="", "",D1D2D3!A266)</f>
         <v/>
@@ -38508,7 +38561,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="str">
         <f>IF(D1D2D3!A267="", "",D1D2D3!A267)</f>
         <v/>
@@ -38522,7 +38575,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39" t="str">
         <f>IF(D1D2D3!A268="", "",D1D2D3!A268)</f>
         <v/>
@@ -38536,7 +38589,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="str">
         <f>IF(D1D2D3!A269="", "",D1D2D3!A269)</f>
         <v/>
@@ -38550,7 +38603,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="str">
         <f>IF(D1D2D3!A270="", "",D1D2D3!A270)</f>
         <v/>
@@ -38564,7 +38617,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="str">
         <f>IF(D1D2D3!A271="", "",D1D2D3!A271)</f>
         <v/>
@@ -38578,7 +38631,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="str">
         <f>IF(D1D2D3!A272="", "",D1D2D3!A272)</f>
         <v/>
@@ -38592,7 +38645,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="str">
         <f>IF(D1D2D3!A273="", "",D1D2D3!A273)</f>
         <v/>
@@ -38606,7 +38659,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="str">
         <f>IF(D1D2D3!A274="", "",D1D2D3!A274)</f>
         <v/>
@@ -38620,7 +38673,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="str">
         <f>IF(D1D2D3!A275="", "",D1D2D3!A275)</f>
         <v/>
@@ -38634,7 +38687,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="str">
         <f>IF(D1D2D3!A276="", "",D1D2D3!A276)</f>
         <v/>
@@ -38648,7 +38701,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="str">
         <f>IF(D1D2D3!A277="", "",D1D2D3!A277)</f>
         <v/>
@@ -38662,7 +38715,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="str">
         <f>IF(D1D2D3!A278="", "",D1D2D3!A278)</f>
         <v/>
@@ -38676,7 +38729,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="str">
         <f>IF(D1D2D3!A279="", "",D1D2D3!A279)</f>
         <v/>
@@ -38690,7 +38743,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="str">
         <f>IF(D1D2D3!A280="", "",D1D2D3!A280)</f>
         <v/>
@@ -38704,7 +38757,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="str">
         <f>IF(D1D2D3!A281="", "",D1D2D3!A281)</f>
         <v/>
@@ -38718,7 +38771,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="str">
         <f>IF(D1D2D3!A282="", "",D1D2D3!A282)</f>
         <v/>
@@ -38732,7 +38785,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="str">
         <f>IF(D1D2D3!A283="", "",D1D2D3!A283)</f>
         <v/>
@@ -38746,7 +38799,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39" t="str">
         <f>IF(D1D2D3!A284="", "",D1D2D3!A284)</f>
         <v/>
@@ -38760,7 +38813,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39" t="str">
         <f>IF(D1D2D3!A285="", "",D1D2D3!A285)</f>
         <v/>
@@ -38774,7 +38827,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39" t="str">
         <f>IF(D1D2D3!A286="", "",D1D2D3!A286)</f>
         <v/>
@@ -38788,7 +38841,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39" t="str">
         <f>IF(D1D2D3!A287="", "",D1D2D3!A287)</f>
         <v/>
@@ -38802,7 +38855,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39" t="str">
         <f>IF(D1D2D3!A288="", "",D1D2D3!A288)</f>
         <v/>
@@ -38816,7 +38869,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39" t="str">
         <f>IF(D1D2D3!A289="", "",D1D2D3!A289)</f>
         <v/>
@@ -38830,7 +38883,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39" t="str">
         <f>IF(D1D2D3!A290="", "",D1D2D3!A290)</f>
         <v/>
@@ -38844,7 +38897,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39" t="str">
         <f>IF(D1D2D3!A291="", "",D1D2D3!A291)</f>
         <v/>
@@ -38858,7 +38911,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39" t="str">
         <f>IF(D1D2D3!A292="", "",D1D2D3!A292)</f>
         <v/>
@@ -38872,7 +38925,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39" t="str">
         <f>IF(D1D2D3!A293="", "",D1D2D3!A293)</f>
         <v/>
@@ -38886,7 +38939,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39" t="str">
         <f>IF(D1D2D3!A294="", "",D1D2D3!A294)</f>
         <v/>
@@ -38900,7 +38953,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39" t="str">
         <f>IF(D1D2D3!A295="", "",D1D2D3!A295)</f>
         <v/>
@@ -38914,7 +38967,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39" t="str">
         <f>IF(D1D2D3!A296="", "",D1D2D3!A296)</f>
         <v/>
@@ -38928,7 +38981,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39" t="str">
         <f>IF(D1D2D3!A297="", "",D1D2D3!A297)</f>
         <v/>
@@ -38942,7 +38995,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39" t="str">
         <f>IF(D1D2D3!A298="", "",D1D2D3!A298)</f>
         <v/>
@@ -38956,7 +39009,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39" t="str">
         <f>IF(D1D2D3!A299="", "",D1D2D3!A299)</f>
         <v/>
@@ -38970,7 +39023,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39" t="str">
         <f>IF(D1D2D3!A300="", "",D1D2D3!A300)</f>
         <v/>
@@ -38984,7 +39037,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39" t="str">
         <f>IF(D1D2D3!A301="", "",D1D2D3!A301)</f>
         <v/>
@@ -38998,7 +39051,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39" t="str">
         <f>IF(D1D2D3!A302="", "",D1D2D3!A302)</f>
         <v/>
@@ -39012,7 +39065,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39" t="str">
         <f>IF(D1D2D3!A303="", "",D1D2D3!A303)</f>
         <v/>
@@ -39028,27 +39081,40 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
-        <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v>Fegri, Ane Robøle</v>
+        <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B303" s="41">
-        <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
-        <v>117</v>
+        <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
+        <v>94</v>
       </c>
       <c r="C303" s="37">
-        <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
-        <v>5</v>
+        <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C303">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A4:C303">
       <sortCondition ref="C3:C303"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -39823,8 +39889,9 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -44200,8 +44267,9 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -48569,8 +48637,9 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -51028,8 +51097,9 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -53489,18 +53559,19 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53588,7 +53659,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Olsen, Malin</v>
@@ -53612,7 +53683,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Dokken, Anne Birgit</v>
@@ -53636,7 +53707,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v/>
@@ -53660,7 +53731,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v/>
@@ -53684,7 +53755,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v/>
@@ -53708,7 +53779,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v/>
@@ -53732,7 +53803,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v/>
@@ -53756,7 +53827,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
         <v/>
@@ -53780,7 +53851,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v/>
@@ -53804,7 +53875,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
         <v/>
@@ -53828,7 +53899,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
         <v/>
@@ -53852,7 +53923,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v/>
@@ -53876,7 +53947,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v/>
@@ -53900,7 +53971,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
         <v/>
@@ -53924,7 +53995,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v/>
@@ -53948,7 +54019,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K1'!A20="", "",'K1'!A20)</f>
         <v/>
@@ -53972,7 +54043,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K1'!A21="", "",'K1'!A21)</f>
         <v/>
@@ -53996,7 +54067,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K1'!A22="", "",'K1'!A22)</f>
         <v/>
@@ -54020,7 +54091,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K1'!A23="", "",'K1'!A23)</f>
         <v/>
@@ -54044,7 +54115,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K1'!A24="", "",'K1'!A24)</f>
         <v/>
@@ -54068,7 +54139,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K1'!A25="", "",'K1'!A25)</f>
         <v/>
@@ -54092,7 +54163,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K1'!A26="", "",'K1'!A26)</f>
         <v/>
@@ -54116,7 +54187,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K1'!A27="", "",'K1'!A27)</f>
         <v/>
@@ -54140,7 +54211,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K1'!A28="", "",'K1'!A28)</f>
         <v/>
@@ -54164,7 +54235,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K1'!A29="", "",'K1'!A29)</f>
         <v/>
@@ -54188,7 +54259,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K1'!A30="", "",'K1'!A30)</f>
         <v/>
@@ -54212,7 +54283,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K1'!A31="", "",'K1'!A31)</f>
         <v/>
@@ -54236,7 +54307,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K1'!A32="", "",'K1'!A32)</f>
         <v/>
@@ -54260,7 +54331,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K1'!A33="", "",'K1'!A33)</f>
         <v/>
@@ -54284,7 +54355,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K1'!A34="", "",'K1'!A34)</f>
         <v/>
@@ -54308,7 +54379,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K1'!A35="", "",'K1'!A35)</f>
         <v/>
@@ -54332,7 +54403,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K1'!A36="", "",'K1'!A36)</f>
         <v/>
@@ -54356,7 +54427,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K1'!A37="", "",'K1'!A37)</f>
         <v/>
@@ -54380,7 +54451,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K1'!A38="", "",'K1'!A38)</f>
         <v/>
@@ -54404,7 +54475,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K1'!A39="", "",'K1'!A39)</f>
         <v/>
@@ -54428,7 +54499,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K1'!A40="", "",'K1'!A40)</f>
         <v/>
@@ -54452,7 +54523,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K1'!A41="", "",'K1'!A41)</f>
         <v/>
@@ -54476,7 +54547,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K1'!A42="", "",'K1'!A42)</f>
         <v/>
@@ -54500,7 +54571,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K1'!A43="", "",'K1'!A43)</f>
         <v/>
@@ -54524,7 +54595,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K1'!A44="", "",'K1'!A44)</f>
         <v/>
@@ -54548,7 +54619,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K1'!A45="", "",'K1'!A45)</f>
         <v/>
@@ -54572,7 +54643,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K1'!A46="", "",'K1'!A46)</f>
         <v/>
@@ -54596,7 +54667,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K1'!A47="", "",'K1'!A47)</f>
         <v/>
@@ -54620,7 +54691,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K1'!A48="", "",'K1'!A48)</f>
         <v/>
@@ -54644,7 +54715,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K1'!A49="", "",'K1'!A49)</f>
         <v/>
@@ -54668,7 +54739,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K1'!A50="", "",'K1'!A50)</f>
         <v/>
@@ -54692,7 +54763,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K1'!A51="", "",'K1'!A51)</f>
         <v/>
@@ -54716,7 +54787,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K1'!A52="", "",'K1'!A52)</f>
         <v/>
@@ -54740,7 +54811,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K1'!A53="", "",'K1'!A53)</f>
         <v/>
@@ -54764,7 +54835,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K1'!A54="", "",'K1'!A54)</f>
         <v/>
@@ -54788,7 +54859,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K1'!A55="", "",'K1'!A55)</f>
         <v/>
@@ -54812,7 +54883,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K1'!A56="", "",'K1'!A56)</f>
         <v/>
@@ -54836,7 +54907,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K1'!A57="", "",'K1'!A57)</f>
         <v/>
@@ -54860,7 +54931,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K1'!A58="", "",'K1'!A58)</f>
         <v/>
@@ -54884,7 +54955,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K1'!A59="", "",'K1'!A59)</f>
         <v/>
@@ -54908,7 +54979,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K1'!A60="", "",'K1'!A60)</f>
         <v/>
@@ -54932,7 +55003,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K1'!A61="", "",'K1'!A61)</f>
         <v/>
@@ -54956,7 +55027,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K1'!A62="", "",'K1'!A62)</f>
         <v/>
@@ -54980,7 +55051,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K1'!A63="", "",'K1'!A63)</f>
         <v/>
@@ -55004,7 +55075,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K1'!A64="", "",'K1'!A64)</f>
         <v/>
@@ -55028,7 +55099,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K1'!A65="", "",'K1'!A65)</f>
         <v/>
@@ -55052,7 +55123,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K1'!A66="", "",'K1'!A66)</f>
         <v/>
@@ -55076,7 +55147,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K1'!A67="", "",'K1'!A67)</f>
         <v/>
@@ -55100,7 +55171,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K1'!A68="", "",'K1'!A68)</f>
         <v/>
@@ -55124,7 +55195,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K1'!A69="", "",'K1'!A69)</f>
         <v/>
@@ -55148,7 +55219,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K1'!A70="", "",'K1'!A70)</f>
         <v/>
@@ -55172,7 +55243,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K1'!A71="", "",'K1'!A71)</f>
         <v/>
@@ -55196,7 +55267,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K1'!A72="", "",'K1'!A72)</f>
         <v/>
@@ -55220,7 +55291,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K1'!A73="", "",'K1'!A73)</f>
         <v/>
@@ -55244,7 +55315,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K1'!A74="", "",'K1'!A74)</f>
         <v/>
@@ -55268,7 +55339,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K1'!A75="", "",'K1'!A75)</f>
         <v/>
@@ -55292,7 +55363,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K1'!A76="", "",'K1'!A76)</f>
         <v/>
@@ -55316,7 +55387,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K1'!A77="", "",'K1'!A77)</f>
         <v/>
@@ -55340,7 +55411,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K1'!A78="", "",'K1'!A78)</f>
         <v/>
@@ -55364,7 +55435,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K1'!A79="", "",'K1'!A79)</f>
         <v/>
@@ -55388,7 +55459,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K1'!A80="", "",'K1'!A80)</f>
         <v/>
@@ -55412,7 +55483,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K1'!A81="", "",'K1'!A81)</f>
         <v/>
@@ -55436,7 +55507,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K1'!A82="", "",'K1'!A82)</f>
         <v/>
@@ -55460,7 +55531,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K1'!A83="", "",'K1'!A83)</f>
         <v/>
@@ -55484,7 +55555,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K1'!A84="", "",'K1'!A84)</f>
         <v/>
@@ -55508,7 +55579,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K1'!A85="", "",'K1'!A85)</f>
         <v/>
@@ -55532,7 +55603,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K1'!A86="", "",'K1'!A86)</f>
         <v/>
@@ -55556,7 +55627,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K1'!A87="", "",'K1'!A87)</f>
         <v/>
@@ -55580,7 +55651,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K1'!A88="", "",'K1'!A88)</f>
         <v/>
@@ -55604,7 +55675,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K1'!A89="", "",'K1'!A89)</f>
         <v/>
@@ -55628,7 +55699,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K1'!A90="", "",'K1'!A90)</f>
         <v/>
@@ -55652,7 +55723,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K1'!A91="", "",'K1'!A91)</f>
         <v/>
@@ -55676,7 +55747,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K1'!A92="", "",'K1'!A92)</f>
         <v/>
@@ -55700,7 +55771,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K1'!A93="", "",'K1'!A93)</f>
         <v/>
@@ -55724,7 +55795,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K1'!A94="", "",'K1'!A94)</f>
         <v/>
@@ -55748,7 +55819,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K1'!A95="", "",'K1'!A95)</f>
         <v/>
@@ -55772,7 +55843,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K1'!A96="", "",'K1'!A96)</f>
         <v/>
@@ -55796,7 +55867,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K1'!A97="", "",'K1'!A97)</f>
         <v/>
@@ -55820,7 +55891,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K1'!A98="", "",'K1'!A98)</f>
         <v/>
@@ -55844,7 +55915,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K1'!A99="", "",'K1'!A99)</f>
         <v/>
@@ -55868,7 +55939,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K1'!A100="", "",'K1'!A100)</f>
         <v/>
@@ -55892,7 +55963,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K1'!A101="", "",'K1'!A101)</f>
         <v/>
@@ -55916,7 +55987,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K1'!A102="", "",'K1'!A102)</f>
         <v/>
@@ -55931,7 +56002,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K1'!A103="", "",'K1'!A103)</f>
         <v/>
@@ -55946,16 +56017,23 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
@@ -56025,16 +56103,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
-        <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Christensen, Vilde Marie Thon</v>
+        <f>IF('K2'!A8="", "",'K2'!A8)</f>
+        <v>Nyhagen, Hedda</v>
       </c>
       <c r="B4" s="36">
-        <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v>2.2106481481481478E-3</v>
+        <f>IF('K2'!A8="", "",'K2'!B8)</f>
+        <v>2.0717592592592593E-3</v>
       </c>
       <c r="C4" s="37">
-        <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v>4</v>
+        <f>IF('K2'!A8="", "",'K2'!C8)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -56073,16 +56151,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Jøranli, Lene</v>
+        <f>IF('K2'!A7="", "",'K2'!A7)</f>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K2'!A6="", "",'K2'!B6)</f>
-        <v>2.3032407407407407E-3</v>
+        <f>IF('K2'!A7="", "",'K2'!B7)</f>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="C6" s="37">
-        <f>IF('K2'!A6="", "",'K2'!C6)</f>
-        <v>6</v>
+        <f>IF('K2'!A7="", "",'K2'!C7)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -56097,16 +56175,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Kjeldsberg, Iselin Stangstuen</v>
+        <f>IF('K2'!A4="", "",'K2'!A4)</f>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K2'!A7="", "",'K2'!B7)</f>
-        <v>2.1643518518518518E-3</v>
+        <f>IF('K2'!A4="", "",'K2'!B4)</f>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="C7" s="37">
-        <f>IF('K2'!A7="", "",'K2'!C7)</f>
-        <v>2</v>
+        <f>IF('K2'!A4="", "",'K2'!C4)</f>
+        <v>4</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -56121,16 +56199,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
-        <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Nyhagen, Hedda</v>
+        <f>IF('K2'!A10="", "",'K2'!A10)</f>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B8" s="36">
-        <f>IF('K2'!A8="", "",'K2'!B8)</f>
-        <v>2.0717592592592593E-3</v>
+        <f>IF('K2'!A10="", "",'K2'!B10)</f>
+        <v>2.2685185185185182E-3</v>
       </c>
       <c r="C8" s="37">
-        <f>IF('K2'!A8="", "",'K2'!C8)</f>
-        <v>1</v>
+        <f>IF('K2'!A10="", "",'K2'!C10)</f>
+        <v>5</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -56145,16 +56223,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
-        <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Ringen, Carene Moen</v>
+        <f>IF('K2'!A6="", "",'K2'!A6)</f>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B9" s="36">
-        <f>IF('K2'!A9="", "",'K2'!B9)</f>
-        <v>2.488425925925926E-3</v>
+        <f>IF('K2'!A6="", "",'K2'!B6)</f>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="C9" s="37">
-        <f>IF('K2'!A9="", "",'K2'!C9)</f>
-        <v>8</v>
+        <f>IF('K2'!A6="", "",'K2'!C6)</f>
+        <v>6</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -56169,16 +56247,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
-        <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Silber, Jessica Birgit</v>
+        <f>IF('K2'!A11="", "",'K2'!A11)</f>
+        <v>Ulsrud, Selma Byfuglien</v>
       </c>
       <c r="B10" s="36">
-        <f>IF('K2'!A10="", "",'K2'!B10)</f>
-        <v>2.2685185185185182E-3</v>
+        <f>IF('K2'!A11="", "",'K2'!B11)</f>
+        <v>2.4305555555555556E-3</v>
       </c>
       <c r="C10" s="37">
-        <f>IF('K2'!A10="", "",'K2'!C10)</f>
-        <v>5</v>
+        <f>IF('K2'!A11="", "",'K2'!C11)</f>
+        <v>7</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -56193,16 +56271,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
-        <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v>Ulsrud, Selma Byfuglien</v>
+        <f>IF('K2'!A9="", "",'K2'!A9)</f>
+        <v>Ringen, Carene Moen</v>
       </c>
       <c r="B11" s="36">
-        <f>IF('K2'!A11="", "",'K2'!B11)</f>
-        <v>2.4305555555555556E-3</v>
+        <f>IF('K2'!A9="", "",'K2'!B9)</f>
+        <v>2.488425925925926E-3</v>
       </c>
       <c r="C11" s="37">
-        <f>IF('K2'!A11="", "",'K2'!C11)</f>
-        <v>7</v>
+        <f>IF('K2'!A9="", "",'K2'!C9)</f>
+        <v>8</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -56215,7 +56293,7 @@
       <c r="L11" s="37"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
         <v/>
@@ -56239,7 +56317,7 @@
       <c r="L12" s="37"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
         <v/>
@@ -56263,7 +56341,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K2'!A14="", "",'K2'!A14)</f>
         <v/>
@@ -56287,7 +56365,7 @@
       <c r="L14" s="37"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K2'!A15="", "",'K2'!A15)</f>
         <v/>
@@ -56311,7 +56389,7 @@
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K2'!A16="", "",'K2'!A16)</f>
         <v/>
@@ -56335,7 +56413,7 @@
       <c r="L16" s="37"/>
       <c r="M16" s="38"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K2'!A17="", "",'K2'!A17)</f>
         <v/>
@@ -56359,7 +56437,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="38"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K2'!A18="", "",'K2'!A18)</f>
         <v/>
@@ -56383,7 +56461,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="38"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K2'!A19="", "",'K2'!A19)</f>
         <v/>
@@ -56407,7 +56485,7 @@
       <c r="L19" s="37"/>
       <c r="M19" s="38"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K2'!A20="", "",'K2'!A20)</f>
         <v/>
@@ -56431,7 +56509,7 @@
       <c r="L20" s="37"/>
       <c r="M20" s="38"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K2'!A21="", "",'K2'!A21)</f>
         <v/>
@@ -56455,7 +56533,7 @@
       <c r="L21" s="37"/>
       <c r="M21" s="38"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K2'!A22="", "",'K2'!A22)</f>
         <v/>
@@ -56479,7 +56557,7 @@
       <c r="L22" s="37"/>
       <c r="M22" s="38"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K2'!A23="", "",'K2'!A23)</f>
         <v/>
@@ -56503,7 +56581,7 @@
       <c r="L23" s="37"/>
       <c r="M23" s="38"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K2'!A24="", "",'K2'!A24)</f>
         <v/>
@@ -56527,7 +56605,7 @@
       <c r="L24" s="37"/>
       <c r="M24" s="38"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K2'!A25="", "",'K2'!A25)</f>
         <v/>
@@ -56551,7 +56629,7 @@
       <c r="L25" s="37"/>
       <c r="M25" s="38"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K2'!A26="", "",'K2'!A26)</f>
         <v/>
@@ -56575,7 +56653,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="38"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K2'!A27="", "",'K2'!A27)</f>
         <v/>
@@ -56599,7 +56677,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="38"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K2'!A28="", "",'K2'!A28)</f>
         <v/>
@@ -56623,7 +56701,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="38"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K2'!A29="", "",'K2'!A29)</f>
         <v/>
@@ -56647,7 +56725,7 @@
       <c r="L29" s="37"/>
       <c r="M29" s="38"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K2'!A30="", "",'K2'!A30)</f>
         <v/>
@@ -56671,7 +56749,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="38"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K2'!A31="", "",'K2'!A31)</f>
         <v/>
@@ -56695,7 +56773,7 @@
       <c r="L31" s="37"/>
       <c r="M31" s="38"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K2'!A32="", "",'K2'!A32)</f>
         <v/>
@@ -56719,7 +56797,7 @@
       <c r="L32" s="37"/>
       <c r="M32" s="38"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K2'!A33="", "",'K2'!A33)</f>
         <v/>
@@ -56743,7 +56821,7 @@
       <c r="L33" s="37"/>
       <c r="M33" s="38"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K2'!A34="", "",'K2'!A34)</f>
         <v/>
@@ -56767,7 +56845,7 @@
       <c r="L34" s="37"/>
       <c r="M34" s="38"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K2'!A35="", "",'K2'!A35)</f>
         <v/>
@@ -56791,7 +56869,7 @@
       <c r="L35" s="37"/>
       <c r="M35" s="38"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K2'!A36="", "",'K2'!A36)</f>
         <v/>
@@ -56815,7 +56893,7 @@
       <c r="L36" s="37"/>
       <c r="M36" s="38"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K2'!A37="", "",'K2'!A37)</f>
         <v/>
@@ -56839,7 +56917,7 @@
       <c r="L37" s="37"/>
       <c r="M37" s="38"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K2'!A38="", "",'K2'!A38)</f>
         <v/>
@@ -56863,7 +56941,7 @@
       <c r="L38" s="37"/>
       <c r="M38" s="38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K2'!A39="", "",'K2'!A39)</f>
         <v/>
@@ -56887,7 +56965,7 @@
       <c r="L39" s="37"/>
       <c r="M39" s="38"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K2'!A40="", "",'K2'!A40)</f>
         <v/>
@@ -56911,7 +56989,7 @@
       <c r="L40" s="37"/>
       <c r="M40" s="38"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K2'!A41="", "",'K2'!A41)</f>
         <v/>
@@ -56935,7 +57013,7 @@
       <c r="L41" s="37"/>
       <c r="M41" s="38"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K2'!A42="", "",'K2'!A42)</f>
         <v/>
@@ -56959,7 +57037,7 @@
       <c r="L42" s="37"/>
       <c r="M42" s="38"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K2'!A43="", "",'K2'!A43)</f>
         <v/>
@@ -56983,7 +57061,7 @@
       <c r="L43" s="37"/>
       <c r="M43" s="38"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K2'!A44="", "",'K2'!A44)</f>
         <v/>
@@ -57007,7 +57085,7 @@
       <c r="L44" s="37"/>
       <c r="M44" s="38"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K2'!A45="", "",'K2'!A45)</f>
         <v/>
@@ -57031,7 +57109,7 @@
       <c r="L45" s="37"/>
       <c r="M45" s="38"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K2'!A46="", "",'K2'!A46)</f>
         <v/>
@@ -57055,7 +57133,7 @@
       <c r="L46" s="37"/>
       <c r="M46" s="38"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K2'!A47="", "",'K2'!A47)</f>
         <v/>
@@ -57079,7 +57157,7 @@
       <c r="L47" s="37"/>
       <c r="M47" s="38"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K2'!A48="", "",'K2'!A48)</f>
         <v/>
@@ -57103,7 +57181,7 @@
       <c r="L48" s="37"/>
       <c r="M48" s="38"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K2'!A49="", "",'K2'!A49)</f>
         <v/>
@@ -57127,7 +57205,7 @@
       <c r="L49" s="37"/>
       <c r="M49" s="38"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K2'!A50="", "",'K2'!A50)</f>
         <v/>
@@ -57151,7 +57229,7 @@
       <c r="L50" s="37"/>
       <c r="M50" s="38"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K2'!A51="", "",'K2'!A51)</f>
         <v/>
@@ -57175,7 +57253,7 @@
       <c r="L51" s="37"/>
       <c r="M51" s="38"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K2'!A52="", "",'K2'!A52)</f>
         <v/>
@@ -57199,7 +57277,7 @@
       <c r="L52" s="37"/>
       <c r="M52" s="38"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K2'!A53="", "",'K2'!A53)</f>
         <v/>
@@ -57223,7 +57301,7 @@
       <c r="L53" s="37"/>
       <c r="M53" s="38"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K2'!A54="", "",'K2'!A54)</f>
         <v/>
@@ -57247,7 +57325,7 @@
       <c r="L54" s="37"/>
       <c r="M54" s="38"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K2'!A55="", "",'K2'!A55)</f>
         <v/>
@@ -57271,7 +57349,7 @@
       <c r="L55" s="37"/>
       <c r="M55" s="38"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K2'!A56="", "",'K2'!A56)</f>
         <v/>
@@ -57295,7 +57373,7 @@
       <c r="L56" s="37"/>
       <c r="M56" s="38"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K2'!A57="", "",'K2'!A57)</f>
         <v/>
@@ -57319,7 +57397,7 @@
       <c r="L57" s="37"/>
       <c r="M57" s="38"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K2'!A58="", "",'K2'!A58)</f>
         <v/>
@@ -57343,7 +57421,7 @@
       <c r="L58" s="37"/>
       <c r="M58" s="38"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K2'!A59="", "",'K2'!A59)</f>
         <v/>
@@ -57367,7 +57445,7 @@
       <c r="L59" s="37"/>
       <c r="M59" s="38"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K2'!A60="", "",'K2'!A60)</f>
         <v/>
@@ -57391,7 +57469,7 @@
       <c r="L60" s="37"/>
       <c r="M60" s="38"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K2'!A61="", "",'K2'!A61)</f>
         <v/>
@@ -57415,7 +57493,7 @@
       <c r="L61" s="37"/>
       <c r="M61" s="38"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K2'!A62="", "",'K2'!A62)</f>
         <v/>
@@ -57439,7 +57517,7 @@
       <c r="L62" s="37"/>
       <c r="M62" s="38"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K2'!A63="", "",'K2'!A63)</f>
         <v/>
@@ -57463,7 +57541,7 @@
       <c r="L63" s="37"/>
       <c r="M63" s="38"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K2'!A64="", "",'K2'!A64)</f>
         <v/>
@@ -57487,7 +57565,7 @@
       <c r="L64" s="37"/>
       <c r="M64" s="38"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K2'!A65="", "",'K2'!A65)</f>
         <v/>
@@ -57511,7 +57589,7 @@
       <c r="L65" s="37"/>
       <c r="M65" s="38"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K2'!A66="", "",'K2'!A66)</f>
         <v/>
@@ -57535,7 +57613,7 @@
       <c r="L66" s="37"/>
       <c r="M66" s="38"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K2'!A67="", "",'K2'!A67)</f>
         <v/>
@@ -57559,7 +57637,7 @@
       <c r="L67" s="37"/>
       <c r="M67" s="38"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K2'!A68="", "",'K2'!A68)</f>
         <v/>
@@ -57583,7 +57661,7 @@
       <c r="L68" s="37"/>
       <c r="M68" s="38"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K2'!A69="", "",'K2'!A69)</f>
         <v/>
@@ -57607,7 +57685,7 @@
       <c r="L69" s="37"/>
       <c r="M69" s="38"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K2'!A70="", "",'K2'!A70)</f>
         <v/>
@@ -57631,7 +57709,7 @@
       <c r="L70" s="37"/>
       <c r="M70" s="38"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K2'!A71="", "",'K2'!A71)</f>
         <v/>
@@ -57655,7 +57733,7 @@
       <c r="L71" s="37"/>
       <c r="M71" s="38"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K2'!A72="", "",'K2'!A72)</f>
         <v/>
@@ -57679,7 +57757,7 @@
       <c r="L72" s="37"/>
       <c r="M72" s="38"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K2'!A73="", "",'K2'!A73)</f>
         <v/>
@@ -57703,7 +57781,7 @@
       <c r="L73" s="37"/>
       <c r="M73" s="38"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K2'!A74="", "",'K2'!A74)</f>
         <v/>
@@ -57727,7 +57805,7 @@
       <c r="L74" s="37"/>
       <c r="M74" s="38"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K2'!A75="", "",'K2'!A75)</f>
         <v/>
@@ -57751,7 +57829,7 @@
       <c r="L75" s="37"/>
       <c r="M75" s="38"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K2'!A76="", "",'K2'!A76)</f>
         <v/>
@@ -57775,7 +57853,7 @@
       <c r="L76" s="37"/>
       <c r="M76" s="38"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K2'!A77="", "",'K2'!A77)</f>
         <v/>
@@ -57799,7 +57877,7 @@
       <c r="L77" s="37"/>
       <c r="M77" s="38"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K2'!A78="", "",'K2'!A78)</f>
         <v/>
@@ -57823,7 +57901,7 @@
       <c r="L78" s="37"/>
       <c r="M78" s="38"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K2'!A79="", "",'K2'!A79)</f>
         <v/>
@@ -57847,7 +57925,7 @@
       <c r="L79" s="37"/>
       <c r="M79" s="38"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K2'!A80="", "",'K2'!A80)</f>
         <v/>
@@ -57871,7 +57949,7 @@
       <c r="L80" s="37"/>
       <c r="M80" s="38"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K2'!A81="", "",'K2'!A81)</f>
         <v/>
@@ -57895,7 +57973,7 @@
       <c r="L81" s="37"/>
       <c r="M81" s="38"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K2'!A82="", "",'K2'!A82)</f>
         <v/>
@@ -57919,7 +57997,7 @@
       <c r="L82" s="37"/>
       <c r="M82" s="38"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K2'!A83="", "",'K2'!A83)</f>
         <v/>
@@ -57943,7 +58021,7 @@
       <c r="L83" s="37"/>
       <c r="M83" s="38"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K2'!A84="", "",'K2'!A84)</f>
         <v/>
@@ -57967,7 +58045,7 @@
       <c r="L84" s="37"/>
       <c r="M84" s="38"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K2'!A85="", "",'K2'!A85)</f>
         <v/>
@@ -57991,7 +58069,7 @@
       <c r="L85" s="37"/>
       <c r="M85" s="38"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K2'!A86="", "",'K2'!A86)</f>
         <v/>
@@ -58015,7 +58093,7 @@
       <c r="L86" s="37"/>
       <c r="M86" s="38"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K2'!A87="", "",'K2'!A87)</f>
         <v/>
@@ -58039,7 +58117,7 @@
       <c r="L87" s="37"/>
       <c r="M87" s="38"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K2'!A88="", "",'K2'!A88)</f>
         <v/>
@@ -58063,7 +58141,7 @@
       <c r="L88" s="37"/>
       <c r="M88" s="38"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K2'!A89="", "",'K2'!A89)</f>
         <v/>
@@ -58087,7 +58165,7 @@
       <c r="L89" s="37"/>
       <c r="M89" s="38"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K2'!A90="", "",'K2'!A90)</f>
         <v/>
@@ -58111,7 +58189,7 @@
       <c r="L90" s="37"/>
       <c r="M90" s="38"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K2'!A91="", "",'K2'!A91)</f>
         <v/>
@@ -58135,7 +58213,7 @@
       <c r="L91" s="37"/>
       <c r="M91" s="38"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K2'!A92="", "",'K2'!A92)</f>
         <v/>
@@ -58159,7 +58237,7 @@
       <c r="L92" s="37"/>
       <c r="M92" s="38"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K2'!A93="", "",'K2'!A93)</f>
         <v/>
@@ -58183,7 +58261,7 @@
       <c r="L93" s="37"/>
       <c r="M93" s="38"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K2'!A94="", "",'K2'!A94)</f>
         <v/>
@@ -58207,7 +58285,7 @@
       <c r="L94" s="37"/>
       <c r="M94" s="38"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K2'!A95="", "",'K2'!A95)</f>
         <v/>
@@ -58231,7 +58309,7 @@
       <c r="L95" s="37"/>
       <c r="M95" s="38"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K2'!A96="", "",'K2'!A96)</f>
         <v/>
@@ -58255,7 +58333,7 @@
       <c r="L96" s="37"/>
       <c r="M96" s="38"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K2'!A97="", "",'K2'!A97)</f>
         <v/>
@@ -58279,7 +58357,7 @@
       <c r="L97" s="37"/>
       <c r="M97" s="38"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K2'!A98="", "",'K2'!A98)</f>
         <v/>
@@ -58303,7 +58381,7 @@
       <c r="L98" s="37"/>
       <c r="M98" s="38"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K2'!A99="", "",'K2'!A99)</f>
         <v/>
@@ -58327,7 +58405,7 @@
       <c r="L99" s="37"/>
       <c r="M99" s="38"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K2'!A100="", "",'K2'!A100)</f>
         <v/>
@@ -58351,7 +58429,7 @@
       <c r="L100" s="37"/>
       <c r="M100" s="38"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K2'!A101="", "",'K2'!A101)</f>
         <v/>
@@ -58375,7 +58453,7 @@
       <c r="L101" s="37"/>
       <c r="M101" s="38"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K2'!A102="", "",'K2'!A102)</f>
         <v/>
@@ -58390,7 +58468,7 @@
       </c>
       <c r="M102" s="38"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K2'!A103="", "",'K2'!A103)</f>
         <v/>
@@ -58406,9 +58484,19 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A4:C11">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -60868,18 +60956,19 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet9" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60945,16 +61034,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
-        <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Christensen, Vilde Marie Thon</v>
+        <f>IF('K2'!A10="", "",'K2'!A10)</f>
+        <v>Silber, Jessica Birgit</v>
       </c>
       <c r="B4" s="36">
-        <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v>3.516203703703704E-2</v>
+        <f>IF('K2'!A10="", "",'K2'!H10)</f>
+        <v>3.1180555555555555E-2</v>
       </c>
       <c r="C4" s="37">
-        <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v>5</v>
+        <f>IF('K2'!A10="", "",'K2'!I10)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60969,16 +61058,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
-        <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Fegri, Ane Robøle</v>
+        <f>IF('K2'!A6="", "",'K2'!A6)</f>
+        <v>Jøranli, Lene</v>
       </c>
       <c r="B5" s="36">
-        <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v>3.2916666666666664E-2</v>
+        <f>IF('K2'!A6="", "",'K2'!H6)</f>
+        <v>3.1574074074074074E-2</v>
       </c>
       <c r="C5" s="37">
-        <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v>4</v>
+        <f>IF('K2'!A6="", "",'K2'!I6)</f>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -60993,16 +61082,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Jøranli, Lene</v>
+        <f>IF('K2'!A7="", "",'K2'!A7)</f>
+        <v>Kjeldsberg, Iselin Stangstuen</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v>3.1574074074074074E-2</v>
+        <f>IF('K2'!A7="", "",'K2'!H7)</f>
+        <v>3.2812500000000001E-2</v>
       </c>
       <c r="C6" s="37">
-        <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v>2</v>
+        <f>IF('K2'!A7="", "",'K2'!I7)</f>
+        <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -61017,16 +61106,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Kjeldsberg, Iselin Stangstuen</v>
+        <f>IF('K2'!A5="", "",'K2'!A5)</f>
+        <v>Fegri, Ane Robøle</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v>3.2812500000000001E-2</v>
+        <f>IF('K2'!A5="", "",'K2'!H5)</f>
+        <v>3.2916666666666664E-2</v>
       </c>
       <c r="C7" s="37">
-        <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v>3</v>
+        <f>IF('K2'!A5="", "",'K2'!I5)</f>
+        <v>4</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -61039,7 +61128,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Nyhagen, Hedda</v>
@@ -61063,7 +61152,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
         <v>Ringen, Carene Moen</v>
@@ -61089,16 +61178,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
-        <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Silber, Jessica Birgit</v>
+        <f>IF('K2'!A4="", "",'K2'!A4)</f>
+        <v>Christensen, Vilde Marie Thon</v>
       </c>
       <c r="B10" s="36">
-        <f>IF('K2'!A10="", "",'K2'!H10)</f>
-        <v>3.1180555555555555E-2</v>
+        <f>IF('K2'!A4="", "",'K2'!H4)</f>
+        <v>3.516203703703704E-2</v>
       </c>
       <c r="C10" s="37">
-        <f>IF('K2'!A10="", "",'K2'!I10)</f>
-        <v>1</v>
+        <f>IF('K2'!A4="", "",'K2'!I4)</f>
+        <v>5</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -61111,7 +61200,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
         <v>Ulsrud, Selma Byfuglien</v>
@@ -61135,7 +61224,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
         <v/>
@@ -61159,7 +61248,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
         <v/>
@@ -61183,7 +61272,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K2'!A14="", "",'K2'!A14)</f>
         <v/>
@@ -61207,7 +61296,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K2'!A15="", "",'K2'!A15)</f>
         <v/>
@@ -61231,7 +61320,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K2'!A16="", "",'K2'!A16)</f>
         <v/>
@@ -61255,7 +61344,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K2'!A17="", "",'K2'!A17)</f>
         <v/>
@@ -61279,7 +61368,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K2'!A18="", "",'K2'!A18)</f>
         <v/>
@@ -61303,7 +61392,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K2'!A19="", "",'K2'!A19)</f>
         <v/>
@@ -61327,7 +61416,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K2'!A20="", "",'K2'!A20)</f>
         <v/>
@@ -61351,7 +61440,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K2'!A21="", "",'K2'!A21)</f>
         <v/>
@@ -61375,7 +61464,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K2'!A22="", "",'K2'!A22)</f>
         <v/>
@@ -61399,7 +61488,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K2'!A23="", "",'K2'!A23)</f>
         <v/>
@@ -61423,7 +61512,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K2'!A24="", "",'K2'!A24)</f>
         <v/>
@@ -61447,7 +61536,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K2'!A25="", "",'K2'!A25)</f>
         <v/>
@@ -61471,7 +61560,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K2'!A26="", "",'K2'!A26)</f>
         <v/>
@@ -61495,7 +61584,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K2'!A27="", "",'K2'!A27)</f>
         <v/>
@@ -61519,7 +61608,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K2'!A28="", "",'K2'!A28)</f>
         <v/>
@@ -61543,7 +61632,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K2'!A29="", "",'K2'!A29)</f>
         <v/>
@@ -61567,7 +61656,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K2'!A30="", "",'K2'!A30)</f>
         <v/>
@@ -61591,7 +61680,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K2'!A31="", "",'K2'!A31)</f>
         <v/>
@@ -61615,7 +61704,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K2'!A32="", "",'K2'!A32)</f>
         <v/>
@@ -61639,7 +61728,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K2'!A33="", "",'K2'!A33)</f>
         <v/>
@@ -61663,7 +61752,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K2'!A34="", "",'K2'!A34)</f>
         <v/>
@@ -61687,7 +61776,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K2'!A35="", "",'K2'!A35)</f>
         <v/>
@@ -61711,7 +61800,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K2'!A36="", "",'K2'!A36)</f>
         <v/>
@@ -61735,7 +61824,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K2'!A37="", "",'K2'!A37)</f>
         <v/>
@@ -61759,7 +61848,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K2'!A38="", "",'K2'!A38)</f>
         <v/>
@@ -61783,7 +61872,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K2'!A39="", "",'K2'!A39)</f>
         <v/>
@@ -61807,7 +61896,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K2'!A40="", "",'K2'!A40)</f>
         <v/>
@@ -61831,7 +61920,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K2'!A41="", "",'K2'!A41)</f>
         <v/>
@@ -61855,7 +61944,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K2'!A42="", "",'K2'!A42)</f>
         <v/>
@@ -61879,7 +61968,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K2'!A43="", "",'K2'!A43)</f>
         <v/>
@@ -61903,7 +61992,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K2'!A44="", "",'K2'!A44)</f>
         <v/>
@@ -61927,7 +62016,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K2'!A45="", "",'K2'!A45)</f>
         <v/>
@@ -61951,7 +62040,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K2'!A46="", "",'K2'!A46)</f>
         <v/>
@@ -61975,7 +62064,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K2'!A47="", "",'K2'!A47)</f>
         <v/>
@@ -61999,7 +62088,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K2'!A48="", "",'K2'!A48)</f>
         <v/>
@@ -62023,7 +62112,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K2'!A49="", "",'K2'!A49)</f>
         <v/>
@@ -62047,7 +62136,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K2'!A50="", "",'K2'!A50)</f>
         <v/>
@@ -62071,7 +62160,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K2'!A51="", "",'K2'!A51)</f>
         <v/>
@@ -62095,7 +62184,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K2'!A52="", "",'K2'!A52)</f>
         <v/>
@@ -62119,7 +62208,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K2'!A53="", "",'K2'!A53)</f>
         <v/>
@@ -62143,7 +62232,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K2'!A54="", "",'K2'!A54)</f>
         <v/>
@@ -62167,7 +62256,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K2'!A55="", "",'K2'!A55)</f>
         <v/>
@@ -62191,7 +62280,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K2'!A56="", "",'K2'!A56)</f>
         <v/>
@@ -62215,7 +62304,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K2'!A57="", "",'K2'!A57)</f>
         <v/>
@@ -62239,7 +62328,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K2'!A58="", "",'K2'!A58)</f>
         <v/>
@@ -62263,7 +62352,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K2'!A59="", "",'K2'!A59)</f>
         <v/>
@@ -62287,7 +62376,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K2'!A60="", "",'K2'!A60)</f>
         <v/>
@@ -62311,7 +62400,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K2'!A61="", "",'K2'!A61)</f>
         <v/>
@@ -62335,7 +62424,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K2'!A62="", "",'K2'!A62)</f>
         <v/>
@@ -62359,7 +62448,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K2'!A63="", "",'K2'!A63)</f>
         <v/>
@@ -62383,7 +62472,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K2'!A64="", "",'K2'!A64)</f>
         <v/>
@@ -62407,7 +62496,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K2'!A65="", "",'K2'!A65)</f>
         <v/>
@@ -62431,7 +62520,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K2'!A66="", "",'K2'!A66)</f>
         <v/>
@@ -62455,7 +62544,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K2'!A67="", "",'K2'!A67)</f>
         <v/>
@@ -62479,7 +62568,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K2'!A68="", "",'K2'!A68)</f>
         <v/>
@@ -62503,7 +62592,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K2'!A69="", "",'K2'!A69)</f>
         <v/>
@@ -62527,7 +62616,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K2'!A70="", "",'K2'!A70)</f>
         <v/>
@@ -62551,7 +62640,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K2'!A71="", "",'K2'!A71)</f>
         <v/>
@@ -62575,7 +62664,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K2'!A72="", "",'K2'!A72)</f>
         <v/>
@@ -62599,7 +62688,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K2'!A73="", "",'K2'!A73)</f>
         <v/>
@@ -62623,7 +62712,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K2'!A74="", "",'K2'!A74)</f>
         <v/>
@@ -62647,7 +62736,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K2'!A75="", "",'K2'!A75)</f>
         <v/>
@@ -62671,7 +62760,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K2'!A76="", "",'K2'!A76)</f>
         <v/>
@@ -62695,7 +62784,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K2'!A77="", "",'K2'!A77)</f>
         <v/>
@@ -62719,7 +62808,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K2'!A78="", "",'K2'!A78)</f>
         <v/>
@@ -62743,7 +62832,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K2'!A79="", "",'K2'!A79)</f>
         <v/>
@@ -62767,7 +62856,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K2'!A80="", "",'K2'!A80)</f>
         <v/>
@@ -62791,7 +62880,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K2'!A81="", "",'K2'!A81)</f>
         <v/>
@@ -62815,7 +62904,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K2'!A82="", "",'K2'!A82)</f>
         <v/>
@@ -62839,7 +62928,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K2'!A83="", "",'K2'!A83)</f>
         <v/>
@@ -62863,7 +62952,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K2'!A84="", "",'K2'!A84)</f>
         <v/>
@@ -62887,7 +62976,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K2'!A85="", "",'K2'!A85)</f>
         <v/>
@@ -62911,7 +63000,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K2'!A86="", "",'K2'!A86)</f>
         <v/>
@@ -62935,7 +63024,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K2'!A87="", "",'K2'!A87)</f>
         <v/>
@@ -62959,7 +63048,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K2'!A88="", "",'K2'!A88)</f>
         <v/>
@@ -62983,7 +63072,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K2'!A89="", "",'K2'!A89)</f>
         <v/>
@@ -63007,7 +63096,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K2'!A90="", "",'K2'!A90)</f>
         <v/>
@@ -63031,7 +63120,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K2'!A91="", "",'K2'!A91)</f>
         <v/>
@@ -63055,7 +63144,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K2'!A92="", "",'K2'!A92)</f>
         <v/>
@@ -63079,7 +63168,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K2'!A93="", "",'K2'!A93)</f>
         <v/>
@@ -63103,7 +63192,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K2'!A94="", "",'K2'!A94)</f>
         <v/>
@@ -63127,7 +63216,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K2'!A95="", "",'K2'!A95)</f>
         <v/>
@@ -63151,7 +63240,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K2'!A96="", "",'K2'!A96)</f>
         <v/>
@@ -63175,7 +63264,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K2'!A97="", "",'K2'!A97)</f>
         <v/>
@@ -63199,7 +63288,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K2'!A98="", "",'K2'!A98)</f>
         <v/>
@@ -63223,7 +63312,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K2'!A99="", "",'K2'!A99)</f>
         <v/>
@@ -63247,7 +63336,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K2'!A100="", "",'K2'!A100)</f>
         <v/>
@@ -63271,7 +63360,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K2'!A101="", "",'K2'!A101)</f>
         <v/>
@@ -63295,7 +63384,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K2'!A102="", "",'K2'!A102)</f>
         <v/>
@@ -63310,7 +63399,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K2'!A103="", "",'K2'!A103)</f>
         <v/>
@@ -63325,9 +63414,23 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:C10">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>